--- a/xl/ФТИ_2к_20-21_весна.xlsx
+++ b/xl/ФТИ_2к_20-21_весна.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\umu-rasp\Pub\Весна_20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\Pub\Весна_20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="255">
   <si>
     <t>День недели</t>
   </si>
@@ -767,26 +767,11 @@
     <t>кр 12 н. Промышленные электронные устройства</t>
   </si>
   <si>
-    <t>11 н. Промышленные электронные устройства</t>
-  </si>
-  <si>
     <t>кр 12 н. Конструирование и проектирование промышленных электронных устройств</t>
-  </si>
-  <si>
-    <t>9 н. Конструирование и проектирование промышленных электронных устройств
-11 н. Промышленные электронные устройства</t>
   </si>
   <si>
     <t>лк
 лк</t>
-  </si>
-  <si>
-    <t>Маков П.В.
-Лебеденко И.Б.</t>
-  </si>
-  <si>
-    <t>С-20* 224
-С-20* 333</t>
   </si>
   <si>
     <t>кр. 12 н. Квантовая механика и статистическая физика</t>
@@ -886,6 +871,12 @@
   </si>
   <si>
     <t>12 н. Фр.яз.</t>
+  </si>
+  <si>
+    <t>13 н. Промышленные электронные устройства</t>
+  </si>
+  <si>
+    <t>9 н. Конструирование и проектирование промышленных электронных устройств</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2761,6 +2752,16 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2769,80 +2770,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2851,27 +2835,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3151,10 +3145,10 @@
   <dimension ref="A1:BH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AH61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1:BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3223,88 +3217,88 @@
   <sheetData>
     <row r="1" spans="1:60" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="266" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
       <c r="O1" s="124"/>
-      <c r="P1" s="271" t="s">
+      <c r="P1" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="258"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="270"/>
       <c r="T1" s="124"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="281" t="s">
+      <c r="V1" s="266" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="282"/>
+      <c r="W1" s="267"/>
+      <c r="X1" s="267"/>
+      <c r="Y1" s="267"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="267"/>
+      <c r="AB1" s="267"/>
+      <c r="AC1" s="267"/>
+      <c r="AD1" s="267"/>
+      <c r="AE1" s="267"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="267"/>
+      <c r="AH1" s="267"/>
       <c r="AI1" s="124"/>
-      <c r="AJ1" s="271" t="s">
+      <c r="AJ1" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="257"/>
-      <c r="AL1" s="257"/>
-      <c r="AM1" s="258"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="270"/>
       <c r="AN1" s="124"/>
       <c r="AO1" s="1"/>
-      <c r="AP1" s="281" t="s">
+      <c r="AP1" s="266" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="282"/>
-      <c r="AR1" s="282"/>
-      <c r="AS1" s="282"/>
-      <c r="AT1" s="282"/>
-      <c r="AU1" s="282"/>
-      <c r="AV1" s="282"/>
-      <c r="AW1" s="282"/>
-      <c r="AX1" s="282"/>
-      <c r="AY1" s="282"/>
-      <c r="AZ1" s="282"/>
-      <c r="BA1" s="282"/>
-      <c r="BB1" s="282"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="267"/>
+      <c r="AT1" s="267"/>
+      <c r="AU1" s="267"/>
+      <c r="AV1" s="267"/>
+      <c r="AW1" s="267"/>
+      <c r="AX1" s="267"/>
+      <c r="AY1" s="267"/>
+      <c r="AZ1" s="267"/>
+      <c r="BA1" s="267"/>
+      <c r="BB1" s="267"/>
       <c r="BC1" s="124"/>
-      <c r="BD1" s="271" t="s">
+      <c r="BD1" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="257"/>
-      <c r="BF1" s="257"/>
-      <c r="BG1" s="258"/>
+      <c r="BE1" s="269"/>
+      <c r="BF1" s="269"/>
+      <c r="BG1" s="270"/>
       <c r="BH1" s="124"/>
     </row>
     <row r="2" spans="1:60" ht="42" customHeight="1">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="285"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="274"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3338,15 +3332,15 @@
         <v>18</v>
       </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="272" t="s">
+      <c r="U2" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="283" t="s">
+      <c r="V2" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="285"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="274"/>
       <c r="Z2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3380,15 +3374,15 @@
         <v>28</v>
       </c>
       <c r="AN2" s="7"/>
-      <c r="AO2" s="272" t="s">
+      <c r="AO2" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="AP2" s="283" t="s">
+      <c r="AP2" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="AQ2" s="284"/>
-      <c r="AR2" s="284"/>
-      <c r="AS2" s="285"/>
+      <c r="AQ2" s="273"/>
+      <c r="AR2" s="273"/>
+      <c r="AS2" s="274"/>
       <c r="AT2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3412,7 @@
       <c r="BH2" s="7"/>
     </row>
     <row r="3" spans="1:60" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="249"/>
+      <c r="A3" s="261"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3476,7 +3470,7 @@
       <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="249"/>
+      <c r="U3" s="261"/>
       <c r="V3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3534,7 +3528,7 @@
       <c r="AN3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AO3" s="249"/>
+      <c r="AO3" s="261"/>
       <c r="AP3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3594,16 +3588,16 @@
       </c>
     </row>
     <row r="4" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="268">
+      <c r="B4" s="257">
         <v>1</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="245" t="s">
+      <c r="D4" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -3624,16 +3618,16 @@
       <c r="R4" s="26"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
-      <c r="U4" s="273" t="s">
+      <c r="U4" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="268">
+      <c r="V4" s="257">
         <v>1</v>
       </c>
-      <c r="W4" s="245" t="s">
+      <c r="W4" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="245" t="s">
+      <c r="X4" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y4" s="15" t="s">
@@ -3658,16 +3652,16 @@
       <c r="AL4" s="18"/>
       <c r="AM4" s="23"/>
       <c r="AN4" s="19"/>
-      <c r="AO4" s="273" t="s">
+      <c r="AO4" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="AP4" s="268">
+      <c r="AP4" s="257">
         <v>1</v>
       </c>
-      <c r="AQ4" s="245" t="s">
+      <c r="AQ4" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="245" t="s">
+      <c r="AR4" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS4" s="15" t="s">
@@ -3690,10 +3684,10 @@
       <c r="BH4" s="19"/>
     </row>
     <row r="5" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="29" t="s">
         <v>28</v>
       </c>
@@ -3712,10 +3706,10 @@
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="265"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="242"/>
-      <c r="X5" s="242"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="258"/>
+      <c r="W5" s="246"/>
+      <c r="X5" s="246"/>
       <c r="Y5" s="29" t="s">
         <v>28</v>
       </c>
@@ -3738,10 +3732,10 @@
       <c r="AL5" s="30"/>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
-      <c r="AO5" s="265"/>
-      <c r="AP5" s="247"/>
-      <c r="AQ5" s="242"/>
-      <c r="AR5" s="242"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="258"/>
+      <c r="AQ5" s="246"/>
+      <c r="AR5" s="246"/>
       <c r="AS5" s="29" t="s">
         <v>28</v>
       </c>
@@ -3762,27 +3756,27 @@
       <c r="BH5" s="19"/>
     </row>
     <row r="6" spans="1:60" ht="84.75" customHeight="1">
-      <c r="A6" s="265"/>
-      <c r="B6" s="246">
+      <c r="A6" s="254"/>
+      <c r="B6" s="259">
         <v>2</v>
       </c>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="241" t="s">
+      <c r="D6" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H6" s="194" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>177</v>
@@ -3791,13 +3785,13 @@
         <v>178</v>
       </c>
       <c r="K6" s="130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L6" s="105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M6" s="194" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>177</v>
@@ -3806,13 +3800,13 @@
         <v>178</v>
       </c>
       <c r="P6" s="130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R6" s="194" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S6" s="19" t="s">
         <v>177</v>
@@ -3820,27 +3814,27 @@
       <c r="T6" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U6" s="265"/>
-      <c r="V6" s="246">
+      <c r="U6" s="254"/>
+      <c r="V6" s="259">
         <v>2</v>
       </c>
-      <c r="W6" s="241" t="s">
+      <c r="W6" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="241" t="s">
+      <c r="X6" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="Z6" s="130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA6" s="105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AB6" s="194" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AC6" s="19" t="s">
         <v>177</v>
@@ -3849,7 +3843,7 @@
         <v>178</v>
       </c>
       <c r="AE6" s="107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AF6" s="105" t="s">
         <v>63</v>
@@ -3864,7 +3858,7 @@
         <v>178</v>
       </c>
       <c r="AJ6" s="107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AK6" s="105" t="s">
         <v>63</v>
@@ -3878,14 +3872,14 @@
       <c r="AN6" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO6" s="265"/>
-      <c r="AP6" s="246">
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="259">
         <v>2</v>
       </c>
-      <c r="AQ6" s="241" t="s">
+      <c r="AQ6" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR6" s="241" t="s">
+      <c r="AR6" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS6" s="32" t="s">
@@ -3897,7 +3891,7 @@
       <c r="AW6" s="19"/>
       <c r="AX6" s="19"/>
       <c r="AY6" s="107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AZ6" s="105" t="s">
         <v>63</v>
@@ -3918,15 +3912,15 @@
       <c r="BH6" s="19"/>
     </row>
     <row r="7" spans="1:60" ht="69.75" customHeight="1">
-      <c r="A7" s="265"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="A7" s="254"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G7" s="105" t="s">
         <v>63</v>
@@ -3941,7 +3935,7 @@
         <v>178</v>
       </c>
       <c r="K7" s="130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L7" s="105" t="s">
         <v>63</v>
@@ -3956,7 +3950,7 @@
         <v>178</v>
       </c>
       <c r="P7" s="130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="105" t="s">
         <v>63</v>
@@ -3970,15 +3964,15 @@
       <c r="T7" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U7" s="265"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="258"/>
+      <c r="W7" s="246"/>
+      <c r="X7" s="246"/>
       <c r="Y7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="Z7" s="130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AA7" s="105" t="s">
         <v>63</v>
@@ -3993,13 +3987,13 @@
         <v>178</v>
       </c>
       <c r="AE7" s="130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF7" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG7" s="106" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AH7" s="19" t="s">
         <v>177</v>
@@ -4008,13 +4002,13 @@
         <v>178</v>
       </c>
       <c r="AJ7" s="130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AK7" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL7" s="106" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AM7" s="19" t="s">
         <v>177</v>
@@ -4022,15 +4016,15 @@
       <c r="AN7" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO7" s="265"/>
-      <c r="AP7" s="247"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="258"/>
+      <c r="AQ7" s="246"/>
+      <c r="AR7" s="246"/>
       <c r="AS7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AT7" s="107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AU7" s="105" t="s">
         <v>63</v>
@@ -4045,13 +4039,13 @@
         <v>178</v>
       </c>
       <c r="AY7" s="130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AZ7" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BA7" s="106" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BB7" s="19" t="s">
         <v>177</v>
@@ -4066,14 +4060,14 @@
       <c r="BH7" s="19"/>
     </row>
     <row r="8" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A8" s="265"/>
-      <c r="B8" s="246">
+      <c r="A8" s="254"/>
+      <c r="B8" s="259">
         <v>3</v>
       </c>
-      <c r="C8" s="241" t="s">
+      <c r="C8" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="241" t="s">
+      <c r="D8" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="32" t="s">
@@ -4124,14 +4118,14 @@
       <c r="T8" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U8" s="265"/>
-      <c r="V8" s="246">
+      <c r="U8" s="254"/>
+      <c r="V8" s="259">
         <v>3</v>
       </c>
-      <c r="W8" s="241" t="s">
+      <c r="W8" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="241" t="s">
+      <c r="X8" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y8" s="32" t="s">
@@ -4182,14 +4176,14 @@
       <c r="AN8" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO8" s="265"/>
-      <c r="AP8" s="246">
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="259">
         <v>3</v>
       </c>
-      <c r="AQ8" s="241" t="s">
+      <c r="AQ8" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR8" s="241" t="s">
+      <c r="AR8" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS8" s="32" t="s">
@@ -4222,15 +4216,15 @@
       <c r="BH8" s="19"/>
     </row>
     <row r="9" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="265"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
+      <c r="A9" s="254"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
       <c r="E9" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G9" s="105" t="s">
         <v>63</v>
@@ -4245,7 +4239,7 @@
         <v>178</v>
       </c>
       <c r="K9" s="130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L9" s="105" t="s">
         <v>63</v>
@@ -4260,7 +4254,7 @@
         <v>178</v>
       </c>
       <c r="P9" s="130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="105" t="s">
         <v>63</v>
@@ -4274,15 +4268,15 @@
       <c r="T9" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U9" s="265"/>
-      <c r="V9" s="247"/>
-      <c r="W9" s="242"/>
-      <c r="X9" s="242"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="258"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
       <c r="Y9" s="32" t="s">
         <v>28</v>
       </c>
       <c r="Z9" s="130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AA9" s="105" t="s">
         <v>63</v>
@@ -4297,7 +4291,7 @@
         <v>178</v>
       </c>
       <c r="AE9" s="107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF9" s="105" t="s">
         <v>63</v>
@@ -4312,7 +4306,7 @@
         <v>178</v>
       </c>
       <c r="AJ9" s="107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AK9" s="105" t="s">
         <v>63</v>
@@ -4326,10 +4320,10 @@
       <c r="AN9" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO9" s="265"/>
-      <c r="AP9" s="247"/>
-      <c r="AQ9" s="242"/>
-      <c r="AR9" s="242"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="258"/>
+      <c r="AQ9" s="246"/>
+      <c r="AR9" s="246"/>
       <c r="AS9" s="32" t="s">
         <v>28</v>
       </c>
@@ -4339,7 +4333,7 @@
       <c r="AW9" s="19"/>
       <c r="AX9" s="19"/>
       <c r="AY9" s="107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AZ9" s="105" t="s">
         <v>63</v>
@@ -4360,14 +4354,14 @@
       <c r="BH9" s="19"/>
     </row>
     <row r="10" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A10" s="265"/>
-      <c r="B10" s="246">
+      <c r="A10" s="254"/>
+      <c r="B10" s="259">
         <v>4</v>
       </c>
-      <c r="C10" s="241" t="s">
+      <c r="C10" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="241" t="s">
+      <c r="D10" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -4418,14 +4412,14 @@
       <c r="T10" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U10" s="265"/>
-      <c r="V10" s="246">
+      <c r="U10" s="254"/>
+      <c r="V10" s="259">
         <v>4</v>
       </c>
-      <c r="W10" s="241" t="s">
+      <c r="W10" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="241" t="s">
+      <c r="X10" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y10" s="32" t="s">
@@ -4476,14 +4470,14 @@
       <c r="AN10" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO10" s="265"/>
-      <c r="AP10" s="246">
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="259">
         <v>4</v>
       </c>
-      <c r="AQ10" s="241" t="s">
+      <c r="AQ10" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR10" s="241" t="s">
+      <c r="AR10" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS10" s="32" t="s">
@@ -4526,15 +4520,15 @@
       <c r="BH10" s="19"/>
     </row>
     <row r="11" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A11" s="265"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
       <c r="E11" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G11" s="105" t="s">
         <v>63</v>
@@ -4549,7 +4543,7 @@
         <v>178</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L11" s="105" t="s">
         <v>63</v>
@@ -4564,7 +4558,7 @@
         <v>178</v>
       </c>
       <c r="P11" s="107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="105" t="s">
         <v>63</v>
@@ -4578,15 +4572,15 @@
       <c r="T11" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U11" s="265"/>
-      <c r="V11" s="247"/>
-      <c r="W11" s="242"/>
-      <c r="X11" s="242"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="246"/>
+      <c r="X11" s="246"/>
       <c r="Y11" s="32" t="s">
         <v>28</v>
       </c>
       <c r="Z11" s="107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AA11" s="105" t="s">
         <v>63</v>
@@ -4601,7 +4595,7 @@
         <v>178</v>
       </c>
       <c r="AE11" s="107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF11" s="191" t="s">
         <v>63</v>
@@ -4616,7 +4610,7 @@
         <v>178</v>
       </c>
       <c r="AJ11" s="107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AK11" s="191" t="s">
         <v>63</v>
@@ -4630,15 +4624,15 @@
       <c r="AN11" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO11" s="265"/>
-      <c r="AP11" s="247"/>
-      <c r="AQ11" s="242"/>
-      <c r="AR11" s="242"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="258"/>
+      <c r="AQ11" s="246"/>
+      <c r="AR11" s="246"/>
       <c r="AS11" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AT11" s="107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AU11" s="191" t="s">
         <v>63</v>
@@ -4653,7 +4647,7 @@
         <v>178</v>
       </c>
       <c r="AY11" s="107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AZ11" s="191" t="s">
         <v>63</v>
@@ -4674,27 +4668,27 @@
       <c r="BH11" s="28"/>
     </row>
     <row r="12" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A12" s="265"/>
-      <c r="B12" s="246">
+      <c r="A12" s="254"/>
+      <c r="B12" s="259">
         <v>5</v>
       </c>
-      <c r="C12" s="241" t="s">
+      <c r="C12" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="241" t="s">
+      <c r="D12" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G12" s="191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H12" s="195" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>177</v>
@@ -4703,13 +4697,13 @@
         <v>178</v>
       </c>
       <c r="K12" s="130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L12" s="191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M12" s="195" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>177</v>
@@ -4718,13 +4712,13 @@
         <v>178</v>
       </c>
       <c r="P12" s="130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R12" s="195" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S12" s="19" t="s">
         <v>177</v>
@@ -4732,27 +4726,27 @@
       <c r="T12" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U12" s="265"/>
-      <c r="V12" s="246">
+      <c r="U12" s="254"/>
+      <c r="V12" s="259">
         <v>5</v>
       </c>
-      <c r="W12" s="241" t="s">
+      <c r="W12" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X12" s="241" t="s">
+      <c r="X12" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AA12" s="191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB12" s="195" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AC12" s="19" t="s">
         <v>177</v>
@@ -4760,35 +4754,35 @@
       <c r="AD12" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AE12" s="288"/>
+      <c r="AE12" s="241"/>
       <c r="AF12" s="201"/>
       <c r="AG12" s="106"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="28"/>
-      <c r="AJ12" s="288"/>
+      <c r="AJ12" s="241"/>
       <c r="AK12" s="201"/>
       <c r="AL12" s="106"/>
       <c r="AM12" s="19"/>
       <c r="AN12" s="28"/>
-      <c r="AO12" s="265"/>
-      <c r="AP12" s="246">
+      <c r="AO12" s="254"/>
+      <c r="AP12" s="259">
         <v>5</v>
       </c>
-      <c r="AQ12" s="241" t="s">
+      <c r="AQ12" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR12" s="241" t="s">
+      <c r="AR12" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AT12" s="288"/>
+      <c r="AT12" s="241"/>
       <c r="AU12" s="201"/>
       <c r="AV12" s="106"/>
       <c r="AW12" s="19"/>
       <c r="AX12" s="28"/>
-      <c r="AY12" s="288"/>
+      <c r="AY12" s="241"/>
       <c r="AZ12" s="201"/>
       <c r="BA12" s="106"/>
       <c r="BB12" s="19"/>
@@ -4800,10 +4794,10 @@
       <c r="BH12" s="19"/>
     </row>
     <row r="13" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A13" s="265"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
       <c r="E13" s="32" t="s">
         <v>28</v>
       </c>
@@ -4822,10 +4816,10 @@
       <c r="R13" s="106"/>
       <c r="S13" s="19"/>
       <c r="T13" s="113"/>
-      <c r="U13" s="265"/>
-      <c r="V13" s="247"/>
-      <c r="W13" s="242"/>
-      <c r="X13" s="242"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
       <c r="Y13" s="32" t="s">
         <v>28</v>
       </c>
@@ -4835,7 +4829,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AF13" s="191" t="s">
         <v>63</v>
@@ -4850,7 +4844,7 @@
         <v>178</v>
       </c>
       <c r="AJ13" s="107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AK13" s="191" t="s">
         <v>63</v>
@@ -4864,15 +4858,15 @@
       <c r="AN13" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO13" s="265"/>
-      <c r="AP13" s="247"/>
-      <c r="AQ13" s="242"/>
-      <c r="AR13" s="242"/>
+      <c r="AO13" s="254"/>
+      <c r="AP13" s="258"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="246"/>
       <c r="AS13" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AT13" s="107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AU13" s="191" t="s">
         <v>63</v>
@@ -4887,7 +4881,7 @@
         <v>178</v>
       </c>
       <c r="AY13" s="107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AZ13" s="191" t="s">
         <v>63</v>
@@ -4908,14 +4902,14 @@
       <c r="BH13" s="19"/>
     </row>
     <row r="14" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A14" s="265"/>
-      <c r="B14" s="248">
+      <c r="A14" s="254"/>
+      <c r="B14" s="260">
         <v>6</v>
       </c>
-      <c r="C14" s="250" t="s">
+      <c r="C14" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="250" t="s">
+      <c r="D14" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -4936,14 +4930,14 @@
       <c r="R14" s="106"/>
       <c r="S14" s="19"/>
       <c r="T14" s="113"/>
-      <c r="U14" s="265"/>
-      <c r="V14" s="248">
+      <c r="U14" s="254"/>
+      <c r="V14" s="260">
         <v>6</v>
       </c>
-      <c r="W14" s="250" t="s">
+      <c r="W14" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="250" t="s">
+      <c r="X14" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y14" s="32" t="s">
@@ -4964,14 +4958,14 @@
       <c r="AL14" s="30"/>
       <c r="AM14" s="19"/>
       <c r="AN14" s="19"/>
-      <c r="AO14" s="265"/>
-      <c r="AP14" s="248">
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="260">
         <v>6</v>
       </c>
-      <c r="AQ14" s="250" t="s">
+      <c r="AQ14" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR14" s="250" t="s">
+      <c r="AR14" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS14" s="32" t="s">
@@ -4994,10 +4988,10 @@
       <c r="BH14" s="19"/>
     </row>
     <row r="15" spans="1:60" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="266"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
+      <c r="A15" s="255"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="250"/>
       <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
@@ -5016,10 +5010,10 @@
       <c r="R15" s="120"/>
       <c r="S15" s="95"/>
       <c r="T15" s="115"/>
-      <c r="U15" s="277"/>
-      <c r="V15" s="249"/>
-      <c r="W15" s="251"/>
-      <c r="X15" s="251"/>
+      <c r="U15" s="276"/>
+      <c r="V15" s="261"/>
+      <c r="W15" s="250"/>
+      <c r="X15" s="250"/>
       <c r="Y15" s="35" t="s">
         <v>28</v>
       </c>
@@ -5038,10 +5032,10 @@
       <c r="AL15" s="45"/>
       <c r="AM15" s="39"/>
       <c r="AN15" s="42"/>
-      <c r="AO15" s="266"/>
-      <c r="AP15" s="249"/>
-      <c r="AQ15" s="251"/>
-      <c r="AR15" s="251"/>
+      <c r="AO15" s="255"/>
+      <c r="AP15" s="261"/>
+      <c r="AQ15" s="250"/>
+      <c r="AR15" s="250"/>
       <c r="AS15" s="35" t="s">
         <v>28</v>
       </c>
@@ -5062,16 +5056,16 @@
       <c r="BH15" s="42"/>
     </row>
     <row r="16" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A16" s="276" t="s">
+      <c r="A16" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="268">
+      <c r="B16" s="257">
         <v>1</v>
       </c>
-      <c r="C16" s="245" t="s">
+      <c r="C16" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="245" t="s">
+      <c r="D16" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -5092,16 +5086,16 @@
       <c r="R16" s="26"/>
       <c r="S16" s="28"/>
       <c r="T16" s="121"/>
-      <c r="U16" s="278" t="s">
+      <c r="U16" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="252">
+      <c r="V16" s="291">
         <v>1</v>
       </c>
-      <c r="W16" s="245" t="s">
+      <c r="W16" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="245" t="s">
+      <c r="X16" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y16" s="15" t="s">
@@ -5122,16 +5116,16 @@
       <c r="AL16" s="50"/>
       <c r="AM16" s="23"/>
       <c r="AN16" s="48"/>
-      <c r="AO16" s="276" t="s">
+      <c r="AO16" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="AP16" s="268">
+      <c r="AP16" s="257">
         <v>1</v>
       </c>
-      <c r="AQ16" s="245" t="s">
+      <c r="AQ16" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR16" s="245" t="s">
+      <c r="AR16" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS16" s="15" t="s">
@@ -5158,10 +5152,10 @@
       <c r="BH16" s="23"/>
     </row>
     <row r="17" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A17" s="265"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
+      <c r="A17" s="254"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="246"/>
       <c r="E17" s="29" t="s">
         <v>28</v>
       </c>
@@ -5180,10 +5174,10 @@
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
       <c r="T17" s="122"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="244"/>
-      <c r="W17" s="242"/>
-      <c r="X17" s="242"/>
+      <c r="U17" s="278"/>
+      <c r="V17" s="248"/>
+      <c r="W17" s="246"/>
+      <c r="X17" s="246"/>
       <c r="Y17" s="29" t="s">
         <v>28</v>
       </c>
@@ -5218,10 +5212,10 @@
         <v>131</v>
       </c>
       <c r="AN17" s="51"/>
-      <c r="AO17" s="265"/>
-      <c r="AP17" s="247"/>
-      <c r="AQ17" s="242"/>
-      <c r="AR17" s="242"/>
+      <c r="AO17" s="254"/>
+      <c r="AP17" s="258"/>
+      <c r="AQ17" s="246"/>
+      <c r="AR17" s="246"/>
       <c r="AS17" s="29" t="s">
         <v>28</v>
       </c>
@@ -5246,14 +5240,14 @@
       <c r="BH17" s="19"/>
     </row>
     <row r="18" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A18" s="265"/>
-      <c r="B18" s="246">
+      <c r="A18" s="254"/>
+      <c r="B18" s="259">
         <v>2</v>
       </c>
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="241" t="s">
+      <c r="D18" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="32" t="s">
@@ -5274,14 +5268,14 @@
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
       <c r="T18" s="122"/>
-      <c r="U18" s="279"/>
-      <c r="V18" s="243">
+      <c r="U18" s="278"/>
+      <c r="V18" s="247">
         <v>2</v>
       </c>
-      <c r="W18" s="241" t="s">
+      <c r="W18" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X18" s="241" t="s">
+      <c r="X18" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="32" t="s">
@@ -5302,14 +5296,14 @@
       <c r="AL18" s="30"/>
       <c r="AM18" s="19"/>
       <c r="AN18" s="51"/>
-      <c r="AO18" s="265"/>
-      <c r="AP18" s="246">
+      <c r="AO18" s="254"/>
+      <c r="AP18" s="259">
         <v>2</v>
       </c>
-      <c r="AQ18" s="241" t="s">
+      <c r="AQ18" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR18" s="241" t="s">
+      <c r="AR18" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS18" s="32" t="s">
@@ -5332,15 +5326,15 @@
       <c r="BH18" s="19"/>
     </row>
     <row r="19" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A19" s="265"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
+      <c r="A19" s="254"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
       <c r="E19" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="232" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="126" t="s">
         <v>77</v>
@@ -5366,10 +5360,10 @@
       <c r="R19" s="127"/>
       <c r="S19" s="19"/>
       <c r="T19" s="122"/>
-      <c r="U19" s="279"/>
-      <c r="V19" s="244"/>
-      <c r="W19" s="242"/>
-      <c r="X19" s="242"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="248"/>
+      <c r="W19" s="246"/>
+      <c r="X19" s="246"/>
       <c r="Y19" s="32" t="s">
         <v>28</v>
       </c>
@@ -5412,10 +5406,10 @@
         <v>131</v>
       </c>
       <c r="AN19" s="51"/>
-      <c r="AO19" s="265"/>
-      <c r="AP19" s="247"/>
-      <c r="AQ19" s="242"/>
-      <c r="AR19" s="242"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="258"/>
+      <c r="AQ19" s="246"/>
+      <c r="AR19" s="246"/>
       <c r="AS19" s="32" t="s">
         <v>28</v>
       </c>
@@ -5440,27 +5434,27 @@
       <c r="BH19" s="19"/>
     </row>
     <row r="20" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A20" s="265"/>
-      <c r="B20" s="246">
+      <c r="A20" s="254"/>
+      <c r="B20" s="259">
         <v>3</v>
       </c>
-      <c r="C20" s="241" t="s">
+      <c r="C20" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="241" t="s">
+      <c r="D20" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I20" s="240" t="s">
         <v>177</v>
@@ -5469,13 +5463,13 @@
         <v>178</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N20" s="240" t="s">
         <v>177</v>
@@ -5484,13 +5478,13 @@
         <v>178</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S20" s="240" t="s">
         <v>177</v>
@@ -5498,27 +5492,27 @@
       <c r="T20" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U20" s="279"/>
-      <c r="V20" s="243">
+      <c r="U20" s="278"/>
+      <c r="V20" s="247">
         <v>3</v>
       </c>
-      <c r="W20" s="241" t="s">
+      <c r="W20" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="241" t="s">
+      <c r="X20" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y20" s="32" t="s">
         <v>27</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AA20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC20" s="240" t="s">
         <v>177</v>
@@ -5527,13 +5521,13 @@
         <v>178</v>
       </c>
       <c r="AE20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AH20" s="240" t="s">
         <v>177</v>
@@ -5542,13 +5536,13 @@
         <v>178</v>
       </c>
       <c r="AJ20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AK20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM20" s="240" t="s">
         <v>177</v>
@@ -5556,27 +5550,27 @@
       <c r="AN20" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO20" s="265"/>
-      <c r="AP20" s="246">
+      <c r="AO20" s="254"/>
+      <c r="AP20" s="259">
         <v>3</v>
       </c>
-      <c r="AQ20" s="241" t="s">
+      <c r="AQ20" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR20" s="241" t="s">
+      <c r="AR20" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS20" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AT20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AU20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AV20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AW20" s="240" t="s">
         <v>177</v>
@@ -5585,13 +5579,13 @@
         <v>178</v>
       </c>
       <c r="AY20" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AZ20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BA20" s="106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BB20" s="240" t="s">
         <v>177</v>
@@ -5606,10 +5600,10 @@
       <c r="BH20" s="19"/>
     </row>
     <row r="21" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A21" s="265"/>
-      <c r="B21" s="247"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
+      <c r="A21" s="254"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="246"/>
       <c r="E21" s="32" t="s">
         <v>28</v>
       </c>
@@ -5652,10 +5646,10 @@
         <v>75</v>
       </c>
       <c r="T21" s="123"/>
-      <c r="U21" s="279"/>
-      <c r="V21" s="244"/>
-      <c r="W21" s="242"/>
-      <c r="X21" s="242"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="248"/>
+      <c r="W21" s="246"/>
+      <c r="X21" s="246"/>
       <c r="Y21" s="32" t="s">
         <v>28</v>
       </c>
@@ -5698,10 +5692,10 @@
         <v>131</v>
       </c>
       <c r="AN21" s="113"/>
-      <c r="AO21" s="265"/>
-      <c r="AP21" s="247"/>
-      <c r="AQ21" s="242"/>
-      <c r="AR21" s="242"/>
+      <c r="AO21" s="254"/>
+      <c r="AP21" s="258"/>
+      <c r="AQ21" s="246"/>
+      <c r="AR21" s="246"/>
       <c r="AS21" s="32" t="s">
         <v>28</v>
       </c>
@@ -5738,21 +5732,21 @@
       <c r="BH21" s="19"/>
     </row>
     <row r="22" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A22" s="265"/>
-      <c r="B22" s="246">
+      <c r="A22" s="254"/>
+      <c r="B22" s="259">
         <v>4</v>
       </c>
-      <c r="C22" s="241" t="s">
+      <c r="C22" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G22" s="126" t="s">
         <v>63</v>
@@ -5767,7 +5761,7 @@
         <v>178</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L22" s="126" t="s">
         <v>63</v>
@@ -5782,7 +5776,7 @@
         <v>178</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="126" t="s">
         <v>63</v>
@@ -5796,21 +5790,21 @@
       <c r="T22" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U22" s="279"/>
-      <c r="V22" s="243">
+      <c r="U22" s="278"/>
+      <c r="V22" s="247">
         <v>4</v>
       </c>
-      <c r="W22" s="241" t="s">
+      <c r="W22" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X22" s="241" t="s">
+      <c r="X22" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y22" s="32" t="s">
         <v>27</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AA22" s="126" t="s">
         <v>63</v>
@@ -5825,7 +5819,7 @@
         <v>178</v>
       </c>
       <c r="AE22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AF22" s="126" t="s">
         <v>63</v>
@@ -5840,7 +5834,7 @@
         <v>178</v>
       </c>
       <c r="AJ22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AK22" s="126" t="s">
         <v>63</v>
@@ -5854,21 +5848,21 @@
       <c r="AN22" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO22" s="265"/>
-      <c r="AP22" s="246">
+      <c r="AO22" s="254"/>
+      <c r="AP22" s="259">
         <v>4</v>
       </c>
-      <c r="AQ22" s="241" t="s">
+      <c r="AQ22" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR22" s="241" t="s">
+      <c r="AR22" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS22" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AT22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AU22" s="126" t="s">
         <v>63</v>
@@ -5883,7 +5877,7 @@
         <v>178</v>
       </c>
       <c r="AY22" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AZ22" s="126" t="s">
         <v>63</v>
@@ -5904,10 +5898,10 @@
       <c r="BH22" s="19"/>
     </row>
     <row r="23" spans="1:60" ht="53.25" customHeight="1">
-      <c r="A23" s="265"/>
-      <c r="B23" s="247"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
+      <c r="A23" s="254"/>
+      <c r="B23" s="258"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="32" t="s">
         <v>28</v>
       </c>
@@ -5950,10 +5944,10 @@
         <v>75</v>
       </c>
       <c r="T23" s="123"/>
-      <c r="U23" s="279"/>
-      <c r="V23" s="244"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="242"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="248"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
       <c r="Y23" s="32" t="s">
         <v>28</v>
       </c>
@@ -5990,10 +5984,10 @@
         <v>131</v>
       </c>
       <c r="AN23" s="113"/>
-      <c r="AO23" s="265"/>
-      <c r="AP23" s="247"/>
-      <c r="AQ23" s="242"/>
-      <c r="AR23" s="242"/>
+      <c r="AO23" s="254"/>
+      <c r="AP23" s="258"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="246"/>
       <c r="AS23" s="32" t="s">
         <v>28</v>
       </c>
@@ -6030,26 +6024,26 @@
       <c r="BH23" s="19"/>
     </row>
     <row r="24" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A24" s="265"/>
-      <c r="B24" s="246">
+      <c r="A24" s="254"/>
+      <c r="B24" s="259">
         <v>5</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="241" t="s">
+      <c r="D24" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="289" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="242" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="290" t="s">
+      <c r="H24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="I24" s="140" t="s">
@@ -6059,12 +6053,12 @@
         <v>178</v>
       </c>
       <c r="K24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="L24" s="290" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="290" t="s">
+      <c r="M24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="N24" s="140" t="s">
@@ -6074,12 +6068,12 @@
         <v>178</v>
       </c>
       <c r="P24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q24" s="290" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q24" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="290" t="s">
+      <c r="R24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="S24" s="140" t="s">
@@ -6088,26 +6082,26 @@
       <c r="T24" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U24" s="279"/>
-      <c r="V24" s="243">
+      <c r="U24" s="278"/>
+      <c r="V24" s="247">
         <v>5</v>
       </c>
-      <c r="W24" s="241" t="s">
+      <c r="W24" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X24" s="241" t="s">
+      <c r="X24" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y24" s="32" t="s">
         <v>27</v>
       </c>
       <c r="Z24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA24" s="290" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA24" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="AB24" s="290" t="s">
+      <c r="AB24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="AC24" s="140" t="s">
@@ -6117,12 +6111,12 @@
         <v>178</v>
       </c>
       <c r="AE24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF24" s="290" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF24" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="AG24" s="290" t="s">
+      <c r="AG24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="AH24" s="140" t="s">
@@ -6132,12 +6126,12 @@
         <v>178</v>
       </c>
       <c r="AJ24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK24" s="290" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK24" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="AL24" s="290" t="s">
+      <c r="AL24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="AM24" s="140" t="s">
@@ -6146,26 +6140,26 @@
       <c r="AN24" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO24" s="265"/>
-      <c r="AP24" s="246">
+      <c r="AO24" s="254"/>
+      <c r="AP24" s="259">
         <v>5</v>
       </c>
-      <c r="AQ24" s="241" t="s">
+      <c r="AQ24" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR24" s="241" t="s">
+      <c r="AR24" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS24" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AT24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU24" s="289" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU24" s="242" t="s">
         <v>63</v>
       </c>
-      <c r="AV24" s="290" t="s">
+      <c r="AV24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="AW24" s="140" t="s">
@@ -6175,12 +6169,12 @@
         <v>178</v>
       </c>
       <c r="AY24" s="239" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ24" s="289" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ24" s="242" t="s">
         <v>63</v>
       </c>
-      <c r="BA24" s="290" t="s">
+      <c r="BA24" s="243" t="s">
         <v>211</v>
       </c>
       <c r="BB24" s="140" t="s">
@@ -6196,10 +6190,10 @@
       <c r="BH24" s="19"/>
     </row>
     <row r="25" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A25" s="265"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
+      <c r="A25" s="254"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
       <c r="E25" s="32" t="s">
         <v>28</v>
       </c>
@@ -6242,10 +6236,10 @@
         <v>175</v>
       </c>
       <c r="T25" s="123"/>
-      <c r="U25" s="279"/>
-      <c r="V25" s="244"/>
-      <c r="W25" s="242"/>
-      <c r="X25" s="242"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
       <c r="Y25" s="32" t="s">
         <v>28</v>
       </c>
@@ -6288,10 +6282,10 @@
         <v>90</v>
       </c>
       <c r="AN25" s="113"/>
-      <c r="AO25" s="265"/>
-      <c r="AP25" s="247"/>
-      <c r="AQ25" s="242"/>
-      <c r="AR25" s="242"/>
+      <c r="AO25" s="254"/>
+      <c r="AP25" s="258"/>
+      <c r="AQ25" s="246"/>
+      <c r="AR25" s="246"/>
       <c r="AS25" s="32" t="s">
         <v>28</v>
       </c>
@@ -6322,14 +6316,14 @@
       <c r="BH25" s="19"/>
     </row>
     <row r="26" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A26" s="265"/>
-      <c r="B26" s="248">
+      <c r="A26" s="254"/>
+      <c r="B26" s="260">
         <v>6</v>
       </c>
-      <c r="C26" s="250" t="s">
+      <c r="C26" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="250" t="s">
+      <c r="D26" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -6350,14 +6344,14 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
       <c r="T26" s="123"/>
-      <c r="U26" s="279"/>
-      <c r="V26" s="286">
+      <c r="U26" s="278"/>
+      <c r="V26" s="251">
         <v>6</v>
       </c>
-      <c r="W26" s="250" t="s">
+      <c r="W26" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X26" s="250" t="s">
+      <c r="X26" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y26" s="32" t="s">
@@ -6378,14 +6372,14 @@
       <c r="AL26" s="53"/>
       <c r="AM26" s="19"/>
       <c r="AN26" s="113"/>
-      <c r="AO26" s="265"/>
-      <c r="AP26" s="248">
+      <c r="AO26" s="254"/>
+      <c r="AP26" s="260">
         <v>6</v>
       </c>
-      <c r="AQ26" s="250" t="s">
+      <c r="AQ26" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR26" s="250" t="s">
+      <c r="AR26" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS26" s="32" t="s">
@@ -6410,10 +6404,10 @@
       <c r="BH26" s="19"/>
     </row>
     <row r="27" spans="1:60" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A27" s="266"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
+      <c r="A27" s="255"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="35" t="s">
         <v>28</v>
       </c>
@@ -6456,10 +6450,10 @@
         <v>175</v>
       </c>
       <c r="T27" s="153"/>
-      <c r="U27" s="280"/>
-      <c r="V27" s="287"/>
-      <c r="W27" s="251"/>
-      <c r="X27" s="251"/>
+      <c r="U27" s="279"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="250"/>
+      <c r="X27" s="250"/>
       <c r="Y27" s="35" t="s">
         <v>28</v>
       </c>
@@ -6502,10 +6496,10 @@
         <v>90</v>
       </c>
       <c r="AN27" s="114"/>
-      <c r="AO27" s="266"/>
-      <c r="AP27" s="249"/>
-      <c r="AQ27" s="251"/>
-      <c r="AR27" s="251"/>
+      <c r="AO27" s="255"/>
+      <c r="AP27" s="261"/>
+      <c r="AQ27" s="250"/>
+      <c r="AR27" s="250"/>
       <c r="AS27" s="35" t="s">
         <v>28</v>
       </c>
@@ -6534,16 +6528,16 @@
       <c r="BH27" s="42"/>
     </row>
     <row r="28" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A28" s="274" t="s">
+      <c r="A28" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="268">
+      <c r="B28" s="257">
         <v>1</v>
       </c>
-      <c r="C28" s="245" t="s">
+      <c r="C28" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="245" t="s">
+      <c r="D28" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -6564,16 +6558,16 @@
       <c r="R28" s="22"/>
       <c r="S28" s="28"/>
       <c r="T28" s="116"/>
-      <c r="U28" s="274" t="s">
+      <c r="U28" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="268">
+      <c r="V28" s="257">
         <v>1</v>
       </c>
-      <c r="W28" s="245" t="s">
+      <c r="W28" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X28" s="245" t="s">
+      <c r="X28" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y28" s="15" t="s">
@@ -6594,16 +6588,16 @@
       <c r="AL28" s="102"/>
       <c r="AM28" s="28"/>
       <c r="AN28" s="116"/>
-      <c r="AO28" s="274" t="s">
+      <c r="AO28" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="AP28" s="268">
+      <c r="AP28" s="257">
         <v>1</v>
       </c>
-      <c r="AQ28" s="245" t="s">
+      <c r="AQ28" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR28" s="245" t="s">
+      <c r="AR28" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS28" s="15" t="s">
@@ -6626,10 +6620,10 @@
       <c r="BH28" s="28"/>
     </row>
     <row r="29" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="A29" s="254"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
       <c r="E29" s="29" t="s">
         <v>28</v>
       </c>
@@ -6648,10 +6642,10 @@
       <c r="R29" s="18"/>
       <c r="S29" s="28"/>
       <c r="T29" s="96"/>
-      <c r="U29" s="265"/>
-      <c r="V29" s="247"/>
-      <c r="W29" s="242"/>
-      <c r="X29" s="242"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="246"/>
+      <c r="X29" s="246"/>
       <c r="Y29" s="29" t="s">
         <v>28</v>
       </c>
@@ -6678,10 +6672,10 @@
       <c r="AL29" s="22"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="96"/>
-      <c r="AO29" s="265"/>
-      <c r="AP29" s="247"/>
-      <c r="AQ29" s="242"/>
-      <c r="AR29" s="242"/>
+      <c r="AO29" s="254"/>
+      <c r="AP29" s="258"/>
+      <c r="AQ29" s="246"/>
+      <c r="AR29" s="246"/>
       <c r="AS29" s="29" t="s">
         <v>28</v>
       </c>
@@ -6720,14 +6714,14 @@
       <c r="BH29" s="19"/>
     </row>
     <row r="30" spans="1:60" ht="48.75" customHeight="1">
-      <c r="A30" s="265"/>
-      <c r="B30" s="246">
+      <c r="A30" s="254"/>
+      <c r="B30" s="259">
         <v>2</v>
       </c>
-      <c r="C30" s="241" t="s">
+      <c r="C30" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="241" t="s">
+      <c r="D30" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="32" t="s">
@@ -6748,14 +6742,14 @@
       <c r="R30" s="18"/>
       <c r="S30" s="28"/>
       <c r="T30" s="96"/>
-      <c r="U30" s="265"/>
-      <c r="V30" s="246">
+      <c r="U30" s="254"/>
+      <c r="V30" s="259">
         <v>2</v>
       </c>
-      <c r="W30" s="241" t="s">
+      <c r="W30" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X30" s="241" t="s">
+      <c r="X30" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="32" t="s">
@@ -6796,14 +6790,14 @@
       <c r="AN30" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO30" s="265"/>
-      <c r="AP30" s="246">
+      <c r="AO30" s="254"/>
+      <c r="AP30" s="259">
         <v>2</v>
       </c>
-      <c r="AQ30" s="241" t="s">
+      <c r="AQ30" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR30" s="241" t="s">
+      <c r="AR30" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS30" s="32" t="s">
@@ -6828,10 +6822,10 @@
       <c r="BH30" s="19"/>
     </row>
     <row r="31" spans="1:60" ht="54.75" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="247"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
+      <c r="A31" s="254"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
       <c r="E31" s="32" t="s">
         <v>28</v>
       </c>
@@ -6854,10 +6848,10 @@
       <c r="R31" s="106"/>
       <c r="S31" s="28"/>
       <c r="T31" s="96"/>
-      <c r="U31" s="265"/>
-      <c r="V31" s="247"/>
-      <c r="W31" s="242"/>
-      <c r="X31" s="242"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="258"/>
+      <c r="W31" s="246"/>
+      <c r="X31" s="246"/>
       <c r="Y31" s="32" t="s">
         <v>28</v>
       </c>
@@ -6884,10 +6878,10 @@
       <c r="AL31" s="106"/>
       <c r="AM31" s="28"/>
       <c r="AN31" s="96"/>
-      <c r="AO31" s="265"/>
-      <c r="AP31" s="247"/>
-      <c r="AQ31" s="242"/>
-      <c r="AR31" s="242"/>
+      <c r="AO31" s="254"/>
+      <c r="AP31" s="258"/>
+      <c r="AQ31" s="246"/>
+      <c r="AR31" s="246"/>
       <c r="AS31" s="32" t="s">
         <v>28</v>
       </c>
@@ -6924,14 +6918,14 @@
       <c r="BH31" s="19"/>
     </row>
     <row r="32" spans="1:60" ht="48.75" customHeight="1">
-      <c r="A32" s="265"/>
-      <c r="B32" s="246">
+      <c r="A32" s="254"/>
+      <c r="B32" s="259">
         <v>3</v>
       </c>
-      <c r="C32" s="241" t="s">
+      <c r="C32" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="241" t="s">
+      <c r="D32" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="32" t="s">
@@ -6982,14 +6976,14 @@
       <c r="T32" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U32" s="265"/>
-      <c r="V32" s="246">
+      <c r="U32" s="254"/>
+      <c r="V32" s="259">
         <v>3</v>
       </c>
-      <c r="W32" s="241" t="s">
+      <c r="W32" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X32" s="241" t="s">
+      <c r="X32" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y32" s="32" t="s">
@@ -7040,14 +7034,14 @@
       <c r="AN32" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO32" s="265"/>
-      <c r="AP32" s="246">
+      <c r="AO32" s="254"/>
+      <c r="AP32" s="259">
         <v>3</v>
       </c>
-      <c r="AQ32" s="241" t="s">
+      <c r="AQ32" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR32" s="241" t="s">
+      <c r="AR32" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS32" s="32" t="s">
@@ -7082,10 +7076,10 @@
       <c r="BH32" s="19"/>
     </row>
     <row r="33" spans="1:60" ht="68.25" customHeight="1">
-      <c r="A33" s="265"/>
-      <c r="B33" s="247"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
+      <c r="A33" s="254"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
       <c r="E33" s="32" t="s">
         <v>28</v>
       </c>
@@ -7112,10 +7106,10 @@
       <c r="R33" s="106"/>
       <c r="S33" s="28"/>
       <c r="T33" s="96"/>
-      <c r="U33" s="265"/>
-      <c r="V33" s="247"/>
-      <c r="W33" s="242"/>
-      <c r="X33" s="242"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="258"/>
+      <c r="W33" s="246"/>
+      <c r="X33" s="246"/>
       <c r="Y33" s="32" t="s">
         <v>28</v>
       </c>
@@ -7142,10 +7136,10 @@
       <c r="AL33" s="106"/>
       <c r="AM33" s="28"/>
       <c r="AN33" s="96"/>
-      <c r="AO33" s="265"/>
-      <c r="AP33" s="247"/>
-      <c r="AQ33" s="242"/>
-      <c r="AR33" s="242"/>
+      <c r="AO33" s="254"/>
+      <c r="AP33" s="258"/>
+      <c r="AQ33" s="246"/>
+      <c r="AR33" s="246"/>
       <c r="AS33" s="32" t="s">
         <v>28</v>
       </c>
@@ -7174,14 +7168,14 @@
       <c r="BH33" s="19"/>
     </row>
     <row r="34" spans="1:60" ht="36.75" customHeight="1">
-      <c r="A34" s="265"/>
-      <c r="B34" s="246">
+      <c r="A34" s="254"/>
+      <c r="B34" s="259">
         <v>4</v>
       </c>
-      <c r="C34" s="241" t="s">
+      <c r="C34" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="241" t="s">
+      <c r="D34" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="32" t="s">
@@ -7232,14 +7226,14 @@
       <c r="T34" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="U34" s="265"/>
-      <c r="V34" s="246">
+      <c r="U34" s="254"/>
+      <c r="V34" s="259">
         <v>4</v>
       </c>
-      <c r="W34" s="241" t="s">
+      <c r="W34" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X34" s="241" t="s">
+      <c r="X34" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y34" s="32" t="s">
@@ -7290,14 +7284,14 @@
       <c r="AN34" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="AO34" s="265"/>
-      <c r="AP34" s="246">
+      <c r="AO34" s="254"/>
+      <c r="AP34" s="259">
         <v>4</v>
       </c>
-      <c r="AQ34" s="241" t="s">
+      <c r="AQ34" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR34" s="241" t="s">
+      <c r="AR34" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS34" s="32" t="s">
@@ -7340,10 +7334,10 @@
       <c r="BH34" s="19"/>
     </row>
     <row r="35" spans="1:60" ht="68.25" customHeight="1">
-      <c r="A35" s="265"/>
-      <c r="B35" s="247"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
+      <c r="A35" s="254"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="246"/>
       <c r="E35" s="32" t="s">
         <v>28</v>
       </c>
@@ -7370,10 +7364,10 @@
       <c r="R35" s="194"/>
       <c r="S35" s="28"/>
       <c r="T35" s="96"/>
-      <c r="U35" s="265"/>
-      <c r="V35" s="247"/>
-      <c r="W35" s="242"/>
-      <c r="X35" s="242"/>
+      <c r="U35" s="254"/>
+      <c r="V35" s="258"/>
+      <c r="W35" s="246"/>
+      <c r="X35" s="246"/>
       <c r="Y35" s="32" t="s">
         <v>28</v>
       </c>
@@ -7395,8 +7389,8 @@
         <v>124</v>
       </c>
       <c r="AI35" s="96"/>
-      <c r="AJ35" s="291" t="s">
-        <v>235</v>
+      <c r="AJ35" s="244" t="s">
+        <v>231</v>
       </c>
       <c r="AK35" s="105" t="s">
         <v>77</v>
@@ -7405,13 +7399,13 @@
         <v>196</v>
       </c>
       <c r="AM35" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AN35" s="96"/>
-      <c r="AO35" s="265"/>
-      <c r="AP35" s="247"/>
-      <c r="AQ35" s="242"/>
-      <c r="AR35" s="242"/>
+      <c r="AO35" s="254"/>
+      <c r="AP35" s="258"/>
+      <c r="AQ35" s="246"/>
+      <c r="AR35" s="246"/>
       <c r="AS35" s="32" t="s">
         <v>28</v>
       </c>
@@ -7440,14 +7434,14 @@
       <c r="BH35" s="19"/>
     </row>
     <row r="36" spans="1:60" ht="36.75" customHeight="1">
-      <c r="A36" s="265"/>
-      <c r="B36" s="246">
+      <c r="A36" s="254"/>
+      <c r="B36" s="259">
         <v>5</v>
       </c>
-      <c r="C36" s="241" t="s">
+      <c r="C36" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="241" t="s">
+      <c r="D36" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -7468,14 +7462,14 @@
       <c r="R36" s="106"/>
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
-      <c r="U36" s="265"/>
-      <c r="V36" s="246">
+      <c r="U36" s="254"/>
+      <c r="V36" s="259">
         <v>5</v>
       </c>
-      <c r="W36" s="241" t="s">
+      <c r="W36" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X36" s="241" t="s">
+      <c r="X36" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y36" s="32" t="s">
@@ -7496,14 +7490,14 @@
       <c r="AL36" s="106"/>
       <c r="AM36" s="19"/>
       <c r="AN36" s="96"/>
-      <c r="AO36" s="265"/>
-      <c r="AP36" s="246">
+      <c r="AO36" s="254"/>
+      <c r="AP36" s="259">
         <v>5</v>
       </c>
-      <c r="AQ36" s="241" t="s">
+      <c r="AQ36" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR36" s="241" t="s">
+      <c r="AR36" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS36" s="32" t="s">
@@ -7530,10 +7524,10 @@
       <c r="BH36" s="19"/>
     </row>
     <row r="37" spans="1:60" ht="48.75" customHeight="1">
-      <c r="A37" s="265"/>
-      <c r="B37" s="247"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="246"/>
       <c r="E37" s="32" t="s">
         <v>28</v>
       </c>
@@ -7568,10 +7562,10 @@
         <v>120</v>
       </c>
       <c r="T37" s="96"/>
-      <c r="U37" s="265"/>
-      <c r="V37" s="247"/>
-      <c r="W37" s="242"/>
-      <c r="X37" s="242"/>
+      <c r="U37" s="254"/>
+      <c r="V37" s="258"/>
+      <c r="W37" s="246"/>
+      <c r="X37" s="246"/>
       <c r="Y37" s="32" t="s">
         <v>28</v>
       </c>
@@ -7580,8 +7574,8 @@
       <c r="AB37" s="18"/>
       <c r="AC37" s="19"/>
       <c r="AD37" s="96"/>
-      <c r="AE37" s="291" t="s">
-        <v>235</v>
+      <c r="AE37" s="244" t="s">
+        <v>231</v>
       </c>
       <c r="AF37" s="105" t="s">
         <v>77</v>
@@ -7590,7 +7584,7 @@
         <v>196</v>
       </c>
       <c r="AH37" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AI37" s="96"/>
       <c r="AJ37" s="97" t="s">
@@ -7606,10 +7600,10 @@
         <v>155</v>
       </c>
       <c r="AN37" s="96"/>
-      <c r="AO37" s="265"/>
-      <c r="AP37" s="247"/>
-      <c r="AQ37" s="242"/>
-      <c r="AR37" s="242"/>
+      <c r="AO37" s="254"/>
+      <c r="AP37" s="258"/>
+      <c r="AQ37" s="246"/>
+      <c r="AR37" s="246"/>
       <c r="AS37" s="32" t="s">
         <v>28</v>
       </c>
@@ -7634,14 +7628,14 @@
       <c r="BH37" s="19"/>
     </row>
     <row r="38" spans="1:60" ht="36.75" customHeight="1">
-      <c r="A38" s="265"/>
-      <c r="B38" s="248">
+      <c r="A38" s="254"/>
+      <c r="B38" s="260">
         <v>6</v>
       </c>
-      <c r="C38" s="250" t="s">
+      <c r="C38" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="250" t="s">
+      <c r="D38" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="32" t="s">
@@ -7662,14 +7656,14 @@
       <c r="R38" s="106"/>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
-      <c r="U38" s="265"/>
-      <c r="V38" s="248">
+      <c r="U38" s="254"/>
+      <c r="V38" s="260">
         <v>6</v>
       </c>
-      <c r="W38" s="250" t="s">
+      <c r="W38" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X38" s="250" t="s">
+      <c r="X38" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y38" s="32" t="s">
@@ -7690,14 +7684,14 @@
       <c r="AL38" s="106"/>
       <c r="AM38" s="19"/>
       <c r="AN38" s="19"/>
-      <c r="AO38" s="265"/>
-      <c r="AP38" s="248">
+      <c r="AO38" s="254"/>
+      <c r="AP38" s="260">
         <v>6</v>
       </c>
-      <c r="AQ38" s="250" t="s">
+      <c r="AQ38" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR38" s="250" t="s">
+      <c r="AR38" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS38" s="32" t="s">
@@ -7720,10 +7714,10 @@
       <c r="BH38" s="19"/>
     </row>
     <row r="39" spans="1:60" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A39" s="266"/>
-      <c r="B39" s="249"/>
-      <c r="C39" s="251"/>
-      <c r="D39" s="251"/>
+      <c r="A39" s="255"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="250"/>
       <c r="E39" s="35" t="s">
         <v>28</v>
       </c>
@@ -7758,10 +7752,10 @@
         <v>120</v>
       </c>
       <c r="T39" s="42"/>
-      <c r="U39" s="266"/>
-      <c r="V39" s="249"/>
-      <c r="W39" s="251"/>
-      <c r="X39" s="251"/>
+      <c r="U39" s="255"/>
+      <c r="V39" s="261"/>
+      <c r="W39" s="250"/>
+      <c r="X39" s="250"/>
       <c r="Y39" s="35" t="s">
         <v>28</v>
       </c>
@@ -7788,10 +7782,10 @@
         <v>155</v>
       </c>
       <c r="AN39" s="179"/>
-      <c r="AO39" s="266"/>
-      <c r="AP39" s="249"/>
-      <c r="AQ39" s="251"/>
-      <c r="AR39" s="251"/>
+      <c r="AO39" s="255"/>
+      <c r="AP39" s="261"/>
+      <c r="AQ39" s="250"/>
+      <c r="AR39" s="250"/>
       <c r="AS39" s="35" t="s">
         <v>28</v>
       </c>
@@ -7812,16 +7806,16 @@
       <c r="BH39" s="42"/>
     </row>
     <row r="40" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A40" s="275" t="s">
+      <c r="A40" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="268">
+      <c r="B40" s="257">
         <v>1</v>
       </c>
-      <c r="C40" s="245" t="s">
+      <c r="C40" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="245" t="s">
+      <c r="D40" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -7850,16 +7844,16 @@
       <c r="R40" s="200"/>
       <c r="S40" s="28"/>
       <c r="T40" s="113"/>
-      <c r="U40" s="275" t="s">
+      <c r="U40" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="V40" s="268">
+      <c r="V40" s="257">
         <v>1</v>
       </c>
-      <c r="W40" s="245" t="s">
+      <c r="W40" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X40" s="245" t="s">
+      <c r="X40" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y40" s="15" t="s">
@@ -7884,16 +7878,16 @@
       <c r="AL40" s="200"/>
       <c r="AM40" s="28"/>
       <c r="AN40" s="28"/>
-      <c r="AO40" s="275" t="s">
+      <c r="AO40" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="AP40" s="268">
+      <c r="AP40" s="257">
         <v>1</v>
       </c>
-      <c r="AQ40" s="245" t="s">
+      <c r="AQ40" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR40" s="245" t="s">
+      <c r="AR40" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS40" s="15" t="s">
@@ -7924,10 +7918,10 @@
       <c r="BH40" s="23"/>
     </row>
     <row r="41" spans="1:60" ht="46.5" customHeight="1">
-      <c r="A41" s="265"/>
-      <c r="B41" s="247"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="242"/>
+      <c r="A41" s="254"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="246"/>
       <c r="E41" s="29" t="s">
         <v>28</v>
       </c>
@@ -7954,10 +7948,10 @@
         <v>168</v>
       </c>
       <c r="T41" s="96"/>
-      <c r="U41" s="265"/>
-      <c r="V41" s="247"/>
-      <c r="W41" s="242"/>
-      <c r="X41" s="242"/>
+      <c r="U41" s="254"/>
+      <c r="V41" s="258"/>
+      <c r="W41" s="246"/>
+      <c r="X41" s="246"/>
       <c r="Y41" s="29" t="s">
         <v>28</v>
       </c>
@@ -7996,10 +7990,10 @@
         <v>163</v>
       </c>
       <c r="AN41" s="19"/>
-      <c r="AO41" s="265"/>
-      <c r="AP41" s="247"/>
-      <c r="AQ41" s="242"/>
-      <c r="AR41" s="242"/>
+      <c r="AO41" s="254"/>
+      <c r="AP41" s="258"/>
+      <c r="AQ41" s="246"/>
+      <c r="AR41" s="246"/>
       <c r="AS41" s="29" t="s">
         <v>28</v>
       </c>
@@ -8028,14 +8022,14 @@
       <c r="BH41" s="19"/>
     </row>
     <row r="42" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A42" s="265"/>
-      <c r="B42" s="246">
+      <c r="A42" s="254"/>
+      <c r="B42" s="259">
         <v>2</v>
       </c>
-      <c r="C42" s="241" t="s">
+      <c r="C42" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="241" t="s">
+      <c r="D42" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="32" t="s">
@@ -8072,14 +8066,14 @@
       <c r="R42" s="106"/>
       <c r="S42" s="19"/>
       <c r="T42" s="113"/>
-      <c r="U42" s="265"/>
-      <c r="V42" s="246">
+      <c r="U42" s="254"/>
+      <c r="V42" s="259">
         <v>2</v>
       </c>
-      <c r="W42" s="241" t="s">
+      <c r="W42" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X42" s="241" t="s">
+      <c r="X42" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="32" t="s">
@@ -8118,14 +8112,14 @@
       <c r="AL42" s="106"/>
       <c r="AM42" s="19"/>
       <c r="AN42" s="19"/>
-      <c r="AO42" s="265"/>
-      <c r="AP42" s="246">
+      <c r="AO42" s="254"/>
+      <c r="AP42" s="259">
         <v>2</v>
       </c>
-      <c r="AQ42" s="241" t="s">
+      <c r="AQ42" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR42" s="241" t="s">
+      <c r="AR42" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS42" s="32" t="s">
@@ -8164,10 +8158,10 @@
       <c r="BH42" s="19"/>
     </row>
     <row r="43" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A43" s="265"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
+      <c r="A43" s="254"/>
+      <c r="B43" s="258"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="32" t="s">
         <v>28</v>
       </c>
@@ -8196,10 +8190,10 @@
         <v>168</v>
       </c>
       <c r="T43" s="96"/>
-      <c r="U43" s="265"/>
-      <c r="V43" s="247"/>
-      <c r="W43" s="242"/>
-      <c r="X43" s="242"/>
+      <c r="U43" s="254"/>
+      <c r="V43" s="258"/>
+      <c r="W43" s="246"/>
+      <c r="X43" s="246"/>
       <c r="Y43" s="32" t="s">
         <v>28</v>
       </c>
@@ -8242,10 +8236,10 @@
         <v>128</v>
       </c>
       <c r="AN43" s="19"/>
-      <c r="AO43" s="265"/>
-      <c r="AP43" s="247"/>
-      <c r="AQ43" s="242"/>
-      <c r="AR43" s="242"/>
+      <c r="AO43" s="254"/>
+      <c r="AP43" s="258"/>
+      <c r="AQ43" s="246"/>
+      <c r="AR43" s="246"/>
       <c r="AS43" s="32" t="s">
         <v>28</v>
       </c>
@@ -8282,14 +8276,14 @@
       <c r="BH43" s="19"/>
     </row>
     <row r="44" spans="1:60" ht="65.25" customHeight="1">
-      <c r="A44" s="265"/>
-      <c r="B44" s="246">
+      <c r="A44" s="254"/>
+      <c r="B44" s="259">
         <v>3</v>
       </c>
-      <c r="C44" s="241" t="s">
+      <c r="C44" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="241" t="s">
+      <c r="D44" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="32" t="s">
@@ -8330,14 +8324,14 @@
       <c r="R44" s="106"/>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
-      <c r="U44" s="265"/>
-      <c r="V44" s="246">
+      <c r="U44" s="254"/>
+      <c r="V44" s="259">
         <v>3</v>
       </c>
-      <c r="W44" s="241" t="s">
+      <c r="W44" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X44" s="241" t="s">
+      <c r="X44" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y44" s="32" t="s">
@@ -8374,14 +8368,14 @@
         <v>85</v>
       </c>
       <c r="AN44" s="113"/>
-      <c r="AO44" s="265"/>
-      <c r="AP44" s="246">
+      <c r="AO44" s="254"/>
+      <c r="AP44" s="259">
         <v>3</v>
       </c>
-      <c r="AQ44" s="241" t="s">
+      <c r="AQ44" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR44" s="241" t="s">
+      <c r="AR44" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS44" s="32" t="s">
@@ -8420,10 +8414,10 @@
       <c r="BH44" s="19"/>
     </row>
     <row r="45" spans="1:60" ht="104.25" customHeight="1">
-      <c r="A45" s="265"/>
-      <c r="B45" s="247"/>
-      <c r="C45" s="242"/>
-      <c r="D45" s="242"/>
+      <c r="A45" s="254"/>
+      <c r="B45" s="258"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="246"/>
       <c r="E45" s="32" t="s">
         <v>28</v>
       </c>
@@ -8466,10 +8460,10 @@
         <v>165</v>
       </c>
       <c r="T45" s="19"/>
-      <c r="U45" s="265"/>
-      <c r="V45" s="247"/>
-      <c r="W45" s="242"/>
-      <c r="X45" s="242"/>
+      <c r="U45" s="254"/>
+      <c r="V45" s="258"/>
+      <c r="W45" s="246"/>
+      <c r="X45" s="246"/>
       <c r="Y45" s="32" t="s">
         <v>28</v>
       </c>
@@ -8512,10 +8506,10 @@
         <v>124</v>
       </c>
       <c r="AN45" s="19"/>
-      <c r="AO45" s="265"/>
-      <c r="AP45" s="247"/>
-      <c r="AQ45" s="242"/>
-      <c r="AR45" s="242"/>
+      <c r="AO45" s="254"/>
+      <c r="AP45" s="258"/>
+      <c r="AQ45" s="246"/>
+      <c r="AR45" s="246"/>
       <c r="AS45" s="32" t="s">
         <v>28</v>
       </c>
@@ -8552,14 +8546,14 @@
       <c r="BH45" s="19"/>
     </row>
     <row r="46" spans="1:60" ht="65.25" customHeight="1">
-      <c r="A46" s="265"/>
-      <c r="B46" s="246">
+      <c r="A46" s="254"/>
+      <c r="B46" s="259">
         <v>4</v>
       </c>
-      <c r="C46" s="241" t="s">
+      <c r="C46" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="241" t="s">
+      <c r="D46" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="32" t="s">
@@ -8600,14 +8594,14 @@
       <c r="R46" s="106"/>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
-      <c r="U46" s="265"/>
-      <c r="V46" s="246">
+      <c r="U46" s="254"/>
+      <c r="V46" s="259">
         <v>4</v>
       </c>
-      <c r="W46" s="241" t="s">
+      <c r="W46" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X46" s="241" t="s">
+      <c r="X46" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y46" s="32" t="s">
@@ -8638,14 +8632,14 @@
         <v>85</v>
       </c>
       <c r="AN46" s="113"/>
-      <c r="AO46" s="265"/>
-      <c r="AP46" s="246">
+      <c r="AO46" s="254"/>
+      <c r="AP46" s="259">
         <v>4</v>
       </c>
-      <c r="AQ46" s="241" t="s">
+      <c r="AQ46" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR46" s="241" t="s">
+      <c r="AR46" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS46" s="32" t="s">
@@ -8684,10 +8678,10 @@
       <c r="BH46" s="19"/>
     </row>
     <row r="47" spans="1:60" ht="104.25" customHeight="1">
-      <c r="A47" s="265"/>
-      <c r="B47" s="247"/>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
+      <c r="A47" s="254"/>
+      <c r="B47" s="258"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="246"/>
       <c r="E47" s="32" t="s">
         <v>28</v>
       </c>
@@ -8730,10 +8724,10 @@
         <v>165</v>
       </c>
       <c r="T47" s="19"/>
-      <c r="U47" s="265"/>
-      <c r="V47" s="247"/>
-      <c r="W47" s="242"/>
-      <c r="X47" s="242"/>
+      <c r="U47" s="254"/>
+      <c r="V47" s="258"/>
+      <c r="W47" s="246"/>
+      <c r="X47" s="246"/>
       <c r="Y47" s="32" t="s">
         <v>28</v>
       </c>
@@ -8776,10 +8770,10 @@
         <v>124</v>
       </c>
       <c r="AN47" s="19"/>
-      <c r="AO47" s="265"/>
-      <c r="AP47" s="247"/>
-      <c r="AQ47" s="242"/>
-      <c r="AR47" s="242"/>
+      <c r="AO47" s="254"/>
+      <c r="AP47" s="258"/>
+      <c r="AQ47" s="246"/>
+      <c r="AR47" s="246"/>
       <c r="AS47" s="32" t="s">
         <v>28</v>
       </c>
@@ -8810,14 +8804,14 @@
       <c r="BH47" s="19"/>
     </row>
     <row r="48" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A48" s="265"/>
-      <c r="B48" s="246">
+      <c r="A48" s="254"/>
+      <c r="B48" s="259">
         <v>5</v>
       </c>
-      <c r="C48" s="241" t="s">
+      <c r="C48" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="241" t="s">
+      <c r="D48" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="32" t="s">
@@ -8862,14 +8856,14 @@
         <v>140</v>
       </c>
       <c r="T48" s="19"/>
-      <c r="U48" s="265"/>
-      <c r="V48" s="246">
+      <c r="U48" s="254"/>
+      <c r="V48" s="259">
         <v>5</v>
       </c>
-      <c r="W48" s="241" t="s">
+      <c r="W48" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X48" s="241" t="s">
+      <c r="X48" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y48" s="32" t="s">
@@ -8914,14 +8908,14 @@
         <v>84</v>
       </c>
       <c r="AN48" s="19"/>
-      <c r="AO48" s="265"/>
-      <c r="AP48" s="246">
+      <c r="AO48" s="254"/>
+      <c r="AP48" s="259">
         <v>5</v>
       </c>
-      <c r="AQ48" s="241" t="s">
+      <c r="AQ48" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR48" s="241" t="s">
+      <c r="AR48" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS48" s="32" t="s">
@@ -8952,10 +8946,10 @@
       <c r="BH48" s="19"/>
     </row>
     <row r="49" spans="1:60" ht="66.75" customHeight="1">
-      <c r="A49" s="265"/>
-      <c r="B49" s="247"/>
-      <c r="C49" s="242"/>
-      <c r="D49" s="242"/>
+      <c r="A49" s="254"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="246"/>
       <c r="E49" s="32" t="s">
         <v>28</v>
       </c>
@@ -8992,10 +8986,10 @@
         <v>168</v>
       </c>
       <c r="T49" s="19"/>
-      <c r="U49" s="265"/>
-      <c r="V49" s="247"/>
-      <c r="W49" s="242"/>
-      <c r="X49" s="242"/>
+      <c r="U49" s="254"/>
+      <c r="V49" s="258"/>
+      <c r="W49" s="246"/>
+      <c r="X49" s="246"/>
       <c r="Y49" s="32" t="s">
         <v>28</v>
       </c>
@@ -9022,10 +9016,10 @@
       <c r="AL49" s="127"/>
       <c r="AM49" s="19"/>
       <c r="AN49" s="113"/>
-      <c r="AO49" s="265"/>
-      <c r="AP49" s="247"/>
-      <c r="AQ49" s="242"/>
-      <c r="AR49" s="242"/>
+      <c r="AO49" s="254"/>
+      <c r="AP49" s="258"/>
+      <c r="AQ49" s="246"/>
+      <c r="AR49" s="246"/>
       <c r="AS49" s="32" t="s">
         <v>28</v>
       </c>
@@ -9054,14 +9048,14 @@
       <c r="BH49" s="19"/>
     </row>
     <row r="50" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A50" s="265"/>
-      <c r="B50" s="248">
+      <c r="A50" s="254"/>
+      <c r="B50" s="260">
         <v>6</v>
       </c>
-      <c r="C50" s="250" t="s">
+      <c r="C50" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="250" t="s">
+      <c r="D50" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="32" t="s">
@@ -9090,14 +9084,14 @@
         <v>164</v>
       </c>
       <c r="T50" s="19"/>
-      <c r="U50" s="265"/>
-      <c r="V50" s="248">
+      <c r="U50" s="254"/>
+      <c r="V50" s="260">
         <v>6</v>
       </c>
-      <c r="W50" s="250" t="s">
+      <c r="W50" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X50" s="250" t="s">
+      <c r="X50" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y50" s="32" t="s">
@@ -9142,14 +9136,14 @@
         <v>84</v>
       </c>
       <c r="AN50" s="19"/>
-      <c r="AO50" s="265"/>
-      <c r="AP50" s="248">
+      <c r="AO50" s="254"/>
+      <c r="AP50" s="260">
         <v>6</v>
       </c>
-      <c r="AQ50" s="250" t="s">
+      <c r="AQ50" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR50" s="250" t="s">
+      <c r="AR50" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS50" s="32" t="s">
@@ -9172,10 +9166,10 @@
       <c r="BH50" s="19"/>
     </row>
     <row r="51" spans="1:60" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A51" s="266"/>
-      <c r="B51" s="249"/>
-      <c r="C51" s="251"/>
-      <c r="D51" s="251"/>
+      <c r="A51" s="255"/>
+      <c r="B51" s="261"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="250"/>
       <c r="E51" s="35" t="s">
         <v>28</v>
       </c>
@@ -9210,10 +9204,10 @@
         <v>168</v>
       </c>
       <c r="T51" s="42"/>
-      <c r="U51" s="266"/>
-      <c r="V51" s="249"/>
-      <c r="W51" s="251"/>
-      <c r="X51" s="251"/>
+      <c r="U51" s="255"/>
+      <c r="V51" s="261"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
       <c r="Y51" s="35" t="s">
         <v>28</v>
       </c>
@@ -9240,10 +9234,10 @@
       <c r="AL51" s="38"/>
       <c r="AM51" s="39"/>
       <c r="AN51" s="115"/>
-      <c r="AO51" s="266"/>
-      <c r="AP51" s="249"/>
-      <c r="AQ51" s="251"/>
-      <c r="AR51" s="251"/>
+      <c r="AO51" s="255"/>
+      <c r="AP51" s="261"/>
+      <c r="AQ51" s="250"/>
+      <c r="AR51" s="250"/>
       <c r="AS51" s="35" t="s">
         <v>28</v>
       </c>
@@ -9272,16 +9266,16 @@
       <c r="BH51" s="42"/>
     </row>
     <row r="52" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="248">
+      <c r="B52" s="260">
         <v>1</v>
       </c>
-      <c r="C52" s="245" t="s">
+      <c r="C52" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="245" t="s">
+      <c r="D52" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="62" t="s">
@@ -9314,16 +9308,16 @@
       <c r="R52" s="102"/>
       <c r="S52" s="28"/>
       <c r="T52" s="48"/>
-      <c r="U52" s="269" t="s">
+      <c r="U52" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="V52" s="248">
+      <c r="V52" s="260">
         <v>1</v>
       </c>
-      <c r="W52" s="245" t="s">
+      <c r="W52" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X52" s="245" t="s">
+      <c r="X52" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y52" s="62" t="s">
@@ -9352,16 +9346,16 @@
       <c r="AL52" s="103"/>
       <c r="AM52" s="28"/>
       <c r="AN52" s="28"/>
-      <c r="AO52" s="269" t="s">
+      <c r="AO52" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="AP52" s="248">
+      <c r="AP52" s="260">
         <v>1</v>
       </c>
-      <c r="AQ52" s="245" t="s">
+      <c r="AQ52" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR52" s="245" t="s">
+      <c r="AR52" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS52" s="62" t="s">
@@ -9386,10 +9380,10 @@
       <c r="BH52" s="28"/>
     </row>
     <row r="53" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A53" s="265"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="242"/>
+      <c r="A53" s="254"/>
+      <c r="B53" s="258"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="246"/>
       <c r="E53" s="29" t="s">
         <v>28</v>
       </c>
@@ -9432,10 +9426,10 @@
         <v>185</v>
       </c>
       <c r="T53" s="51"/>
-      <c r="U53" s="265"/>
-      <c r="V53" s="247"/>
-      <c r="W53" s="242"/>
-      <c r="X53" s="242"/>
+      <c r="U53" s="254"/>
+      <c r="V53" s="258"/>
+      <c r="W53" s="246"/>
+      <c r="X53" s="246"/>
       <c r="Y53" s="29" t="s">
         <v>28</v>
       </c>
@@ -9462,7 +9456,7 @@
       </c>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AK53" s="105" t="s">
         <v>77</v>
@@ -9474,10 +9468,10 @@
         <v>128</v>
       </c>
       <c r="AN53" s="19"/>
-      <c r="AO53" s="265"/>
-      <c r="AP53" s="247"/>
-      <c r="AQ53" s="242"/>
-      <c r="AR53" s="242"/>
+      <c r="AO53" s="254"/>
+      <c r="AP53" s="258"/>
+      <c r="AQ53" s="246"/>
+      <c r="AR53" s="246"/>
       <c r="AS53" s="29" t="s">
         <v>28</v>
       </c>
@@ -9508,14 +9502,14 @@
       <c r="BH53" s="19"/>
     </row>
     <row r="54" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A54" s="265"/>
-      <c r="B54" s="246">
+      <c r="A54" s="254"/>
+      <c r="B54" s="259">
         <v>2</v>
       </c>
-      <c r="C54" s="241" t="s">
+      <c r="C54" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="241" t="s">
+      <c r="D54" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="32" t="s">
@@ -9556,14 +9550,14 @@
       <c r="R54" s="106"/>
       <c r="S54" s="19"/>
       <c r="T54" s="51"/>
-      <c r="U54" s="265"/>
-      <c r="V54" s="246">
+      <c r="U54" s="254"/>
+      <c r="V54" s="259">
         <v>2</v>
       </c>
-      <c r="W54" s="241" t="s">
+      <c r="W54" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X54" s="241" t="s">
+      <c r="X54" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="32" t="s">
@@ -9604,14 +9598,14 @@
         <v>183</v>
       </c>
       <c r="AN54" s="19"/>
-      <c r="AO54" s="265"/>
-      <c r="AP54" s="246">
+      <c r="AO54" s="254"/>
+      <c r="AP54" s="259">
         <v>2</v>
       </c>
-      <c r="AQ54" s="241" t="s">
+      <c r="AQ54" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR54" s="241" t="s">
+      <c r="AR54" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS54" s="32" t="s">
@@ -9648,10 +9642,10 @@
       <c r="BH54" s="19"/>
     </row>
     <row r="55" spans="1:60" ht="50.25" customHeight="1">
-      <c r="A55" s="265"/>
-      <c r="B55" s="247"/>
-      <c r="C55" s="242"/>
-      <c r="D55" s="242"/>
+      <c r="A55" s="254"/>
+      <c r="B55" s="258"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="246"/>
       <c r="E55" s="32" t="s">
         <v>28</v>
       </c>
@@ -9694,10 +9688,10 @@
         <v>139</v>
       </c>
       <c r="T55" s="51"/>
-      <c r="U55" s="265"/>
-      <c r="V55" s="247"/>
-      <c r="W55" s="242"/>
-      <c r="X55" s="242"/>
+      <c r="U55" s="254"/>
+      <c r="V55" s="258"/>
+      <c r="W55" s="246"/>
+      <c r="X55" s="246"/>
       <c r="Y55" s="32" t="s">
         <v>28</v>
       </c>
@@ -9740,10 +9734,10 @@
         <v>183</v>
       </c>
       <c r="AN55" s="19"/>
-      <c r="AO55" s="265"/>
-      <c r="AP55" s="247"/>
-      <c r="AQ55" s="242"/>
-      <c r="AR55" s="242"/>
+      <c r="AO55" s="254"/>
+      <c r="AP55" s="258"/>
+      <c r="AQ55" s="246"/>
+      <c r="AR55" s="246"/>
       <c r="AS55" s="32" t="s">
         <v>28</v>
       </c>
@@ -9782,14 +9776,14 @@
       <c r="BH55" s="19"/>
     </row>
     <row r="56" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A56" s="265"/>
-      <c r="B56" s="246">
+      <c r="A56" s="254"/>
+      <c r="B56" s="259">
         <v>3</v>
       </c>
-      <c r="C56" s="241" t="s">
+      <c r="C56" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="241" t="s">
+      <c r="D56" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="32" t="s">
@@ -9834,14 +9828,14 @@
         <v>127</v>
       </c>
       <c r="T56" s="51"/>
-      <c r="U56" s="265"/>
-      <c r="V56" s="246">
+      <c r="U56" s="254"/>
+      <c r="V56" s="259">
         <v>3</v>
       </c>
-      <c r="W56" s="241" t="s">
+      <c r="W56" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X56" s="241" t="s">
+      <c r="X56" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y56" s="32" t="s">
@@ -9886,14 +9880,14 @@
         <v>155</v>
       </c>
       <c r="AN56" s="113"/>
-      <c r="AO56" s="265"/>
-      <c r="AP56" s="246">
+      <c r="AO56" s="254"/>
+      <c r="AP56" s="259">
         <v>3</v>
       </c>
-      <c r="AQ56" s="241" t="s">
+      <c r="AQ56" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR56" s="241" t="s">
+      <c r="AR56" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS56" s="32" t="s">
@@ -9932,10 +9926,10 @@
       <c r="BH56" s="19"/>
     </row>
     <row r="57" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A57" s="265"/>
-      <c r="B57" s="247"/>
-      <c r="C57" s="242"/>
-      <c r="D57" s="242"/>
+      <c r="A57" s="254"/>
+      <c r="B57" s="258"/>
+      <c r="C57" s="246"/>
+      <c r="D57" s="246"/>
       <c r="E57" s="32" t="s">
         <v>28</v>
       </c>
@@ -9978,10 +9972,10 @@
         <v>127</v>
       </c>
       <c r="T57" s="113"/>
-      <c r="U57" s="265"/>
-      <c r="V57" s="247"/>
-      <c r="W57" s="242"/>
-      <c r="X57" s="242"/>
+      <c r="U57" s="254"/>
+      <c r="V57" s="258"/>
+      <c r="W57" s="246"/>
+      <c r="X57" s="246"/>
       <c r="Y57" s="32" t="s">
         <v>28</v>
       </c>
@@ -10016,10 +10010,10 @@
         <v>155</v>
       </c>
       <c r="AN57" s="96"/>
-      <c r="AO57" s="265"/>
-      <c r="AP57" s="247"/>
-      <c r="AQ57" s="242"/>
-      <c r="AR57" s="242"/>
+      <c r="AO57" s="254"/>
+      <c r="AP57" s="258"/>
+      <c r="AQ57" s="246"/>
+      <c r="AR57" s="246"/>
       <c r="AS57" s="32" t="s">
         <v>28</v>
       </c>
@@ -10056,14 +10050,14 @@
       <c r="BH57" s="19"/>
     </row>
     <row r="58" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A58" s="265"/>
-      <c r="B58" s="246">
+      <c r="A58" s="254"/>
+      <c r="B58" s="259">
         <v>4</v>
       </c>
-      <c r="C58" s="241" t="s">
+      <c r="C58" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="241" t="s">
+      <c r="D58" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="32" t="s">
@@ -10108,14 +10102,14 @@
         <v>127</v>
       </c>
       <c r="T58" s="51"/>
-      <c r="U58" s="265"/>
-      <c r="V58" s="246">
+      <c r="U58" s="254"/>
+      <c r="V58" s="259">
         <v>4</v>
       </c>
-      <c r="W58" s="241" t="s">
+      <c r="W58" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X58" s="241" t="s">
+      <c r="X58" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y58" s="32" t="s">
@@ -10160,14 +10154,14 @@
         <v>155</v>
       </c>
       <c r="AN58" s="113"/>
-      <c r="AO58" s="265"/>
-      <c r="AP58" s="246">
+      <c r="AO58" s="254"/>
+      <c r="AP58" s="259">
         <v>4</v>
       </c>
-      <c r="AQ58" s="241" t="s">
+      <c r="AQ58" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR58" s="241" t="s">
+      <c r="AR58" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS58" s="32" t="s">
@@ -10206,10 +10200,10 @@
       <c r="BH58" s="19"/>
     </row>
     <row r="59" spans="1:60" ht="51.75" customHeight="1">
-      <c r="A59" s="265"/>
-      <c r="B59" s="247"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
+      <c r="A59" s="254"/>
+      <c r="B59" s="258"/>
+      <c r="C59" s="246"/>
+      <c r="D59" s="246"/>
       <c r="E59" s="32" t="s">
         <v>28</v>
       </c>
@@ -10252,10 +10246,10 @@
         <v>127</v>
       </c>
       <c r="T59" s="113"/>
-      <c r="U59" s="265"/>
-      <c r="V59" s="247"/>
-      <c r="W59" s="242"/>
-      <c r="X59" s="242"/>
+      <c r="U59" s="254"/>
+      <c r="V59" s="258"/>
+      <c r="W59" s="246"/>
+      <c r="X59" s="246"/>
       <c r="Y59" s="32" t="s">
         <v>28</v>
       </c>
@@ -10298,10 +10292,10 @@
         <v>155</v>
       </c>
       <c r="AN59" s="96"/>
-      <c r="AO59" s="265"/>
-      <c r="AP59" s="247"/>
-      <c r="AQ59" s="242"/>
-      <c r="AR59" s="242"/>
+      <c r="AO59" s="254"/>
+      <c r="AP59" s="258"/>
+      <c r="AQ59" s="246"/>
+      <c r="AR59" s="246"/>
       <c r="AS59" s="32" t="s">
         <v>28</v>
       </c>
@@ -10332,14 +10326,14 @@
       <c r="BH59" s="28"/>
     </row>
     <row r="60" spans="1:60" ht="74.25" customHeight="1">
-      <c r="A60" s="265"/>
-      <c r="B60" s="246">
+      <c r="A60" s="254"/>
+      <c r="B60" s="259">
         <v>5</v>
       </c>
-      <c r="C60" s="241" t="s">
+      <c r="C60" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="241" t="s">
+      <c r="D60" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -10364,14 +10358,14 @@
       <c r="R60" s="106"/>
       <c r="S60" s="19"/>
       <c r="T60" s="113"/>
-      <c r="U60" s="265"/>
-      <c r="V60" s="246">
+      <c r="U60" s="254"/>
+      <c r="V60" s="259">
         <v>5</v>
       </c>
-      <c r="W60" s="241" t="s">
+      <c r="W60" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X60" s="241" t="s">
+      <c r="X60" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y60" s="32" t="s">
@@ -10416,30 +10410,30 @@
         <v>127</v>
       </c>
       <c r="AN60" s="19"/>
-      <c r="AO60" s="265"/>
-      <c r="AP60" s="246">
+      <c r="AO60" s="254"/>
+      <c r="AP60" s="259">
         <v>5</v>
       </c>
-      <c r="AQ60" s="241" t="s">
+      <c r="AQ60" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR60" s="241" t="s">
+      <c r="AR60" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS60" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AT60" s="162" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="AU60" s="148" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="AV60" s="149" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="AW60" s="140" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="AX60" s="96"/>
       <c r="AY60" s="235" t="s">
@@ -10462,10 +10456,10 @@
       <c r="BH60" s="19"/>
     </row>
     <row r="61" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A61" s="265"/>
-      <c r="B61" s="247"/>
-      <c r="C61" s="242"/>
-      <c r="D61" s="242"/>
+      <c r="A61" s="254"/>
+      <c r="B61" s="258"/>
+      <c r="C61" s="246"/>
+      <c r="D61" s="246"/>
       <c r="E61" s="32" t="s">
         <v>28</v>
       </c>
@@ -10492,15 +10486,15 @@
       <c r="R61" s="18"/>
       <c r="S61" s="19"/>
       <c r="T61" s="113"/>
-      <c r="U61" s="265"/>
-      <c r="V61" s="247"/>
-      <c r="W61" s="242"/>
-      <c r="X61" s="242"/>
+      <c r="U61" s="254"/>
+      <c r="V61" s="258"/>
+      <c r="W61" s="246"/>
+      <c r="X61" s="246"/>
       <c r="Y61" s="32" t="s">
         <v>28</v>
       </c>
       <c r="Z61" s="107" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AA61" s="105" t="s">
         <v>77</v>
@@ -10513,7 +10507,7 @@
       </c>
       <c r="AD61" s="19"/>
       <c r="AE61" s="107" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF61" s="105" t="s">
         <v>77</v>
@@ -10526,7 +10520,7 @@
       </c>
       <c r="AI61" s="96"/>
       <c r="AJ61" s="107" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK61" s="105" t="s">
         <v>77</v>
@@ -10538,10 +10532,10 @@
         <v>127</v>
       </c>
       <c r="AN61" s="19"/>
-      <c r="AO61" s="265"/>
-      <c r="AP61" s="247"/>
-      <c r="AQ61" s="242"/>
-      <c r="AR61" s="242"/>
+      <c r="AO61" s="254"/>
+      <c r="AP61" s="258"/>
+      <c r="AQ61" s="246"/>
+      <c r="AR61" s="246"/>
       <c r="AS61" s="32" t="s">
         <v>28</v>
       </c>
@@ -10570,14 +10564,14 @@
       <c r="BH61" s="19"/>
     </row>
     <row r="62" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A62" s="265"/>
-      <c r="B62" s="248">
+      <c r="A62" s="254"/>
+      <c r="B62" s="260">
         <v>6</v>
       </c>
-      <c r="C62" s="250" t="s">
+      <c r="C62" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="250" t="s">
+      <c r="D62" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E62" s="32" t="s">
@@ -10606,14 +10600,14 @@
         <v>185</v>
       </c>
       <c r="T62" s="113"/>
-      <c r="U62" s="265"/>
-      <c r="V62" s="248">
+      <c r="U62" s="254"/>
+      <c r="V62" s="260">
         <v>6</v>
       </c>
-      <c r="W62" s="250" t="s">
+      <c r="W62" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X62" s="250" t="s">
+      <c r="X62" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y62" s="32" t="s">
@@ -10642,31 +10636,23 @@
         <v>127</v>
       </c>
       <c r="AN62" s="19"/>
-      <c r="AO62" s="265"/>
-      <c r="AP62" s="248">
+      <c r="AO62" s="254"/>
+      <c r="AP62" s="260">
         <v>6</v>
       </c>
-      <c r="AQ62" s="250" t="s">
+      <c r="AQ62" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR62" s="250" t="s">
+      <c r="AR62" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS62" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AT62" s="150" t="s">
-        <v>222</v>
-      </c>
-      <c r="AU62" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV62" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW62" s="140" t="s">
-        <v>75</v>
-      </c>
+      <c r="AT62" s="107"/>
+      <c r="AU62" s="17"/>
+      <c r="AV62" s="18"/>
+      <c r="AW62" s="19"/>
       <c r="AX62" s="96"/>
       <c r="AY62" s="239" t="s">
         <v>202</v>
@@ -10688,10 +10674,10 @@
       <c r="BH62" s="19"/>
     </row>
     <row r="63" spans="1:60" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A63" s="266"/>
-      <c r="B63" s="249"/>
-      <c r="C63" s="251"/>
-      <c r="D63" s="251"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="261"/>
+      <c r="C63" s="250"/>
+      <c r="D63" s="250"/>
       <c r="E63" s="35" t="s">
         <v>28</v>
       </c>
@@ -10710,15 +10696,15 @@
       <c r="R63" s="63"/>
       <c r="S63" s="95"/>
       <c r="T63" s="115"/>
-      <c r="U63" s="266"/>
-      <c r="V63" s="249"/>
-      <c r="W63" s="251"/>
-      <c r="X63" s="251"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="261"/>
+      <c r="W63" s="250"/>
+      <c r="X63" s="250"/>
       <c r="Y63" s="35" t="s">
         <v>28</v>
       </c>
       <c r="Z63" s="234" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AA63" s="197" t="s">
         <v>77</v>
@@ -10736,7 +10722,7 @@
       <c r="AH63" s="171"/>
       <c r="AI63" s="104"/>
       <c r="AJ63" s="234" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AK63" s="93" t="s">
         <v>77</v>
@@ -10748,10 +10734,10 @@
         <v>127</v>
       </c>
       <c r="AN63" s="42"/>
-      <c r="AO63" s="266"/>
-      <c r="AP63" s="249"/>
-      <c r="AQ63" s="251"/>
-      <c r="AR63" s="251"/>
+      <c r="AO63" s="255"/>
+      <c r="AP63" s="261"/>
+      <c r="AQ63" s="250"/>
+      <c r="AR63" s="250"/>
       <c r="AS63" s="35" t="s">
         <v>28</v>
       </c>
@@ -10780,16 +10766,16 @@
       <c r="BH63" s="42"/>
     </row>
     <row r="64" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A64" s="264" t="s">
+      <c r="A64" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="268">
+      <c r="B64" s="257">
         <v>1</v>
       </c>
-      <c r="C64" s="245" t="s">
+      <c r="C64" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="245" t="s">
+      <c r="D64" s="256" t="s">
         <v>26</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -10810,16 +10796,16 @@
       <c r="R64" s="22"/>
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
-      <c r="U64" s="264" t="s">
+      <c r="U64" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="V64" s="268">
+      <c r="V64" s="257">
         <v>1</v>
       </c>
-      <c r="W64" s="245" t="s">
+      <c r="W64" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="X64" s="245" t="s">
+      <c r="X64" s="256" t="s">
         <v>26</v>
       </c>
       <c r="Y64" s="15" t="s">
@@ -10848,16 +10834,16 @@
       <c r="AL64" s="30"/>
       <c r="AM64" s="19"/>
       <c r="AN64" s="96"/>
-      <c r="AO64" s="264" t="s">
+      <c r="AO64" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="AP64" s="268">
+      <c r="AP64" s="257">
         <v>1</v>
       </c>
-      <c r="AQ64" s="245" t="s">
+      <c r="AQ64" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AR64" s="245" t="s">
+      <c r="AR64" s="256" t="s">
         <v>26</v>
       </c>
       <c r="AS64" s="15" t="s">
@@ -10875,9 +10861,7 @@
       <c r="AW64" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="AX64" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="AX64" s="19"/>
       <c r="AY64" s="57"/>
       <c r="AZ64" s="17"/>
       <c r="BA64" s="18"/>
@@ -10890,10 +10874,10 @@
       <c r="BH64" s="28"/>
     </row>
     <row r="65" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A65" s="265"/>
-      <c r="B65" s="247"/>
-      <c r="C65" s="242"/>
-      <c r="D65" s="242"/>
+      <c r="A65" s="254"/>
+      <c r="B65" s="258"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="246"/>
       <c r="E65" s="29" t="s">
         <v>28</v>
       </c>
@@ -10912,10 +10896,10 @@
       <c r="R65" s="18"/>
       <c r="S65" s="19"/>
       <c r="T65" s="96"/>
-      <c r="U65" s="265"/>
-      <c r="V65" s="247"/>
-      <c r="W65" s="242"/>
-      <c r="X65" s="242"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="258"/>
+      <c r="W65" s="246"/>
+      <c r="X65" s="246"/>
       <c r="Y65" s="29" t="s">
         <v>28</v>
       </c>
@@ -10942,10 +10926,10 @@
       <c r="AL65" s="30"/>
       <c r="AM65" s="19"/>
       <c r="AN65" s="19"/>
-      <c r="AO65" s="265"/>
-      <c r="AP65" s="247"/>
-      <c r="AQ65" s="242"/>
-      <c r="AR65" s="242"/>
+      <c r="AO65" s="254"/>
+      <c r="AP65" s="258"/>
+      <c r="AQ65" s="246"/>
+      <c r="AR65" s="246"/>
       <c r="AS65" s="29" t="s">
         <v>28</v>
       </c>
@@ -10961,9 +10945,7 @@
       <c r="AW65" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="AX65" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="AX65" s="19"/>
       <c r="AY65" s="97" t="s">
         <v>157</v>
       </c>
@@ -10984,14 +10966,14 @@
       <c r="BH65" s="19"/>
     </row>
     <row r="66" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A66" s="265"/>
-      <c r="B66" s="246">
+      <c r="A66" s="254"/>
+      <c r="B66" s="259">
         <v>2</v>
       </c>
-      <c r="C66" s="241" t="s">
+      <c r="C66" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="241" t="s">
+      <c r="D66" s="245" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="32" t="s">
@@ -11012,14 +10994,14 @@
       <c r="R66" s="18"/>
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
-      <c r="U66" s="265"/>
-      <c r="V66" s="246">
+      <c r="U66" s="254"/>
+      <c r="V66" s="259">
         <v>2</v>
       </c>
-      <c r="W66" s="241" t="s">
+      <c r="W66" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="X66" s="241" t="s">
+      <c r="X66" s="245" t="s">
         <v>30</v>
       </c>
       <c r="Y66" s="32" t="s">
@@ -11050,14 +11032,14 @@
         <v>117</v>
       </c>
       <c r="AN66" s="96"/>
-      <c r="AO66" s="265"/>
-      <c r="AP66" s="246">
+      <c r="AO66" s="254"/>
+      <c r="AP66" s="259">
         <v>2</v>
       </c>
-      <c r="AQ66" s="241" t="s">
+      <c r="AQ66" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="AR66" s="241" t="s">
+      <c r="AR66" s="245" t="s">
         <v>30</v>
       </c>
       <c r="AS66" s="32" t="s">
@@ -11088,10 +11070,10 @@
       <c r="BH66" s="19"/>
     </row>
     <row r="67" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A67" s="265"/>
-      <c r="B67" s="247"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
+      <c r="A67" s="254"/>
+      <c r="B67" s="258"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
       <c r="E67" s="32" t="s">
         <v>28</v>
       </c>
@@ -11112,10 +11094,10 @@
       <c r="R67" s="18"/>
       <c r="S67" s="19"/>
       <c r="T67" s="96"/>
-      <c r="U67" s="265"/>
-      <c r="V67" s="247"/>
-      <c r="W67" s="242"/>
-      <c r="X67" s="242"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="258"/>
+      <c r="W67" s="246"/>
+      <c r="X67" s="246"/>
       <c r="Y67" s="32" t="s">
         <v>28</v>
       </c>
@@ -11130,7 +11112,7 @@
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
       <c r="AJ67" s="107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK67" s="17" t="s">
         <v>77</v>
@@ -11142,10 +11124,10 @@
         <v>117</v>
       </c>
       <c r="AN67" s="19"/>
-      <c r="AO67" s="265"/>
-      <c r="AP67" s="247"/>
-      <c r="AQ67" s="242"/>
-      <c r="AR67" s="242"/>
+      <c r="AO67" s="254"/>
+      <c r="AP67" s="258"/>
+      <c r="AQ67" s="246"/>
+      <c r="AR67" s="246"/>
       <c r="AS67" s="32" t="s">
         <v>28</v>
       </c>
@@ -11182,14 +11164,14 @@
       <c r="BH67" s="19"/>
     </row>
     <row r="68" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A68" s="265"/>
-      <c r="B68" s="246">
+      <c r="A68" s="254"/>
+      <c r="B68" s="259">
         <v>3</v>
       </c>
-      <c r="C68" s="241" t="s">
+      <c r="C68" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="241" t="s">
+      <c r="D68" s="245" t="s">
         <v>32</v>
       </c>
       <c r="E68" s="32" t="s">
@@ -11210,14 +11192,14 @@
       <c r="R68" s="18"/>
       <c r="S68" s="19"/>
       <c r="T68" s="19"/>
-      <c r="U68" s="265"/>
-      <c r="V68" s="246">
+      <c r="U68" s="254"/>
+      <c r="V68" s="259">
         <v>3</v>
       </c>
-      <c r="W68" s="241" t="s">
+      <c r="W68" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="X68" s="241" t="s">
+      <c r="X68" s="245" t="s">
         <v>32</v>
       </c>
       <c r="Y68" s="32" t="s">
@@ -11254,14 +11236,14 @@
         <v>117</v>
       </c>
       <c r="AN68" s="19"/>
-      <c r="AO68" s="265"/>
-      <c r="AP68" s="246">
+      <c r="AO68" s="254"/>
+      <c r="AP68" s="259">
         <v>3</v>
       </c>
-      <c r="AQ68" s="241" t="s">
+      <c r="AQ68" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="AR68" s="241" t="s">
+      <c r="AR68" s="245" t="s">
         <v>32</v>
       </c>
       <c r="AS68" s="32" t="s">
@@ -11279,9 +11261,7 @@
       <c r="AW68" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="AX68" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="AX68" s="19"/>
       <c r="AY68" s="141" t="s">
         <v>217</v>
       </c>
@@ -11302,10 +11282,10 @@
       <c r="BH68" s="19"/>
     </row>
     <row r="69" spans="1:60" ht="53.25" customHeight="1">
-      <c r="A69" s="265"/>
-      <c r="B69" s="247"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="242"/>
+      <c r="A69" s="254"/>
+      <c r="B69" s="258"/>
+      <c r="C69" s="246"/>
+      <c r="D69" s="246"/>
       <c r="E69" s="32" t="s">
         <v>28</v>
       </c>
@@ -11332,10 +11312,10 @@
       <c r="R69" s="18"/>
       <c r="S69" s="28"/>
       <c r="T69" s="96"/>
-      <c r="U69" s="265"/>
-      <c r="V69" s="247"/>
-      <c r="W69" s="242"/>
-      <c r="X69" s="242"/>
+      <c r="U69" s="254"/>
+      <c r="V69" s="258"/>
+      <c r="W69" s="246"/>
+      <c r="X69" s="246"/>
       <c r="Y69" s="32" t="s">
         <v>28</v>
       </c>
@@ -11350,7 +11330,7 @@
       <c r="AH69" s="19"/>
       <c r="AI69" s="96"/>
       <c r="AJ69" s="107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK69" s="17" t="s">
         <v>77</v>
@@ -11362,15 +11342,15 @@
         <v>117</v>
       </c>
       <c r="AN69" s="96"/>
-      <c r="AO69" s="265"/>
-      <c r="AP69" s="247"/>
-      <c r="AQ69" s="242"/>
-      <c r="AR69" s="242"/>
+      <c r="AO69" s="254"/>
+      <c r="AP69" s="258"/>
+      <c r="AQ69" s="246"/>
+      <c r="AR69" s="246"/>
       <c r="AS69" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AT69" s="162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU69" s="148" t="s">
         <v>63</v>
@@ -11381,9 +11361,7 @@
       <c r="AW69" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="AX69" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="AX69" s="19"/>
       <c r="AY69" s="141" t="s">
         <v>219</v>
       </c>
@@ -11404,14 +11382,14 @@
       <c r="BH69" s="19"/>
     </row>
     <row r="70" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A70" s="265"/>
-      <c r="B70" s="246">
+      <c r="A70" s="254"/>
+      <c r="B70" s="259">
         <v>4</v>
       </c>
-      <c r="C70" s="241" t="s">
+      <c r="C70" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="241" t="s">
+      <c r="D70" s="245" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="32" t="s">
@@ -11432,14 +11410,14 @@
       <c r="R70" s="18"/>
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
-      <c r="U70" s="265"/>
-      <c r="V70" s="246">
+      <c r="U70" s="254"/>
+      <c r="V70" s="259">
         <v>4</v>
       </c>
-      <c r="W70" s="241" t="s">
+      <c r="W70" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="241" t="s">
+      <c r="X70" s="245" t="s">
         <v>34</v>
       </c>
       <c r="Y70" s="32" t="s">
@@ -11466,7 +11444,7 @@
       </c>
       <c r="AI70" s="96"/>
       <c r="AJ70" s="107" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AK70" s="17" t="s">
         <v>77</v>
@@ -11478,23 +11456,31 @@
         <v>117</v>
       </c>
       <c r="AN70" s="19"/>
-      <c r="AO70" s="265"/>
-      <c r="AP70" s="246">
+      <c r="AO70" s="254"/>
+      <c r="AP70" s="259">
         <v>4</v>
       </c>
-      <c r="AQ70" s="241" t="s">
+      <c r="AQ70" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="AR70" s="241" t="s">
+      <c r="AR70" s="245" t="s">
         <v>34</v>
       </c>
       <c r="AS70" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AT70" s="57"/>
-      <c r="AU70" s="21"/>
-      <c r="AV70" s="22"/>
-      <c r="AW70" s="28"/>
+      <c r="AT70" s="292" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU70" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV70" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW70" s="140" t="s">
+        <v>75</v>
+      </c>
       <c r="AX70" s="96"/>
       <c r="AY70" s="141" t="s">
         <v>217</v>
@@ -11516,10 +11502,10 @@
       <c r="BH70" s="19"/>
     </row>
     <row r="71" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A71" s="265"/>
-      <c r="B71" s="247"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="242"/>
+      <c r="A71" s="254"/>
+      <c r="B71" s="258"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="246"/>
       <c r="E71" s="32" t="s">
         <v>28</v>
       </c>
@@ -11548,10 +11534,10 @@
       <c r="R71" s="18"/>
       <c r="S71" s="28"/>
       <c r="T71" s="96"/>
-      <c r="U71" s="265"/>
-      <c r="V71" s="247"/>
-      <c r="W71" s="242"/>
-      <c r="X71" s="242"/>
+      <c r="U71" s="254"/>
+      <c r="V71" s="258"/>
+      <c r="W71" s="246"/>
+      <c r="X71" s="246"/>
       <c r="Y71" s="32" t="s">
         <v>28</v>
       </c>
@@ -11566,7 +11552,7 @@
       <c r="AH71" s="19"/>
       <c r="AI71" s="96"/>
       <c r="AJ71" s="107" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AK71" s="17" t="s">
         <v>77</v>
@@ -11578,10 +11564,10 @@
         <v>117</v>
       </c>
       <c r="AN71" s="96"/>
-      <c r="AO71" s="265"/>
-      <c r="AP71" s="247"/>
-      <c r="AQ71" s="242"/>
-      <c r="AR71" s="242"/>
+      <c r="AO71" s="254"/>
+      <c r="AP71" s="258"/>
+      <c r="AQ71" s="246"/>
+      <c r="AR71" s="246"/>
       <c r="AS71" s="32" t="s">
         <v>28</v>
       </c>
@@ -11612,14 +11598,14 @@
       <c r="BH71" s="19"/>
     </row>
     <row r="72" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A72" s="265"/>
-      <c r="B72" s="246">
+      <c r="A72" s="254"/>
+      <c r="B72" s="259">
         <v>5</v>
       </c>
-      <c r="C72" s="241" t="s">
+      <c r="C72" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="241" t="s">
+      <c r="D72" s="245" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="32" t="s">
@@ -11648,14 +11634,14 @@
       <c r="R72" s="18"/>
       <c r="S72" s="19"/>
       <c r="T72" s="19"/>
-      <c r="U72" s="265"/>
-      <c r="V72" s="246">
+      <c r="U72" s="254"/>
+      <c r="V72" s="259">
         <v>5</v>
       </c>
-      <c r="W72" s="241" t="s">
+      <c r="W72" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="X72" s="241" t="s">
+      <c r="X72" s="245" t="s">
         <v>36</v>
       </c>
       <c r="Y72" s="32" t="s">
@@ -11686,23 +11672,31 @@
       <c r="AL72" s="18"/>
       <c r="AM72" s="19"/>
       <c r="AN72" s="19"/>
-      <c r="AO72" s="265"/>
-      <c r="AP72" s="246">
+      <c r="AO72" s="254"/>
+      <c r="AP72" s="259">
         <v>5</v>
       </c>
-      <c r="AQ72" s="241" t="s">
+      <c r="AQ72" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="AR72" s="241" t="s">
+      <c r="AR72" s="245" t="s">
         <v>36</v>
       </c>
       <c r="AS72" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AT72" s="57"/>
-      <c r="AU72" s="21"/>
-      <c r="AV72" s="22"/>
-      <c r="AW72" s="28"/>
+      <c r="AT72" s="292" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU72" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV72" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW72" s="140" t="s">
+        <v>75</v>
+      </c>
       <c r="AX72" s="19"/>
       <c r="AY72" s="141" t="s">
         <v>218</v>
@@ -11724,15 +11718,15 @@
       <c r="BH72" s="19"/>
     </row>
     <row r="73" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A73" s="265"/>
-      <c r="B73" s="247"/>
-      <c r="C73" s="242"/>
-      <c r="D73" s="242"/>
+      <c r="A73" s="254"/>
+      <c r="B73" s="258"/>
+      <c r="C73" s="246"/>
+      <c r="D73" s="246"/>
       <c r="E73" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="232" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G73" s="126" t="s">
         <v>77</v>
@@ -11764,10 +11758,10 @@
         <v>75</v>
       </c>
       <c r="T73" s="28"/>
-      <c r="U73" s="265"/>
-      <c r="V73" s="247"/>
-      <c r="W73" s="242"/>
-      <c r="X73" s="242"/>
+      <c r="U73" s="254"/>
+      <c r="V73" s="258"/>
+      <c r="W73" s="246"/>
+      <c r="X73" s="246"/>
       <c r="Y73" s="32" t="s">
         <v>28</v>
       </c>
@@ -11786,10 +11780,10 @@
       <c r="AL73" s="22"/>
       <c r="AM73" s="28"/>
       <c r="AN73" s="28"/>
-      <c r="AO73" s="265"/>
-      <c r="AP73" s="247"/>
-      <c r="AQ73" s="242"/>
-      <c r="AR73" s="242"/>
+      <c r="AO73" s="254"/>
+      <c r="AP73" s="258"/>
+      <c r="AQ73" s="246"/>
+      <c r="AR73" s="246"/>
       <c r="AS73" s="32" t="s">
         <v>28</v>
       </c>
@@ -11818,14 +11812,14 @@
       <c r="BH73" s="28"/>
     </row>
     <row r="74" spans="1:60" ht="36.950000000000003" customHeight="1">
-      <c r="A74" s="265"/>
-      <c r="B74" s="248">
+      <c r="A74" s="254"/>
+      <c r="B74" s="260">
         <v>6</v>
       </c>
-      <c r="C74" s="250" t="s">
+      <c r="C74" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="250" t="s">
+      <c r="D74" s="249" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="32" t="s">
@@ -11846,14 +11840,14 @@
       <c r="R74" s="18"/>
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
-      <c r="U74" s="265"/>
-      <c r="V74" s="248">
+      <c r="U74" s="254"/>
+      <c r="V74" s="260">
         <v>6</v>
       </c>
-      <c r="W74" s="250" t="s">
+      <c r="W74" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="X74" s="250" t="s">
+      <c r="X74" s="249" t="s">
         <v>38</v>
       </c>
       <c r="Y74" s="32" t="s">
@@ -11882,14 +11876,14 @@
       <c r="AL74" s="18"/>
       <c r="AM74" s="19"/>
       <c r="AN74" s="19"/>
-      <c r="AO74" s="265"/>
-      <c r="AP74" s="248">
+      <c r="AO74" s="254"/>
+      <c r="AP74" s="260">
         <v>6</v>
       </c>
-      <c r="AQ74" s="250" t="s">
+      <c r="AQ74" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="AR74" s="250" t="s">
+      <c r="AR74" s="249" t="s">
         <v>38</v>
       </c>
       <c r="AS74" s="32" t="s">
@@ -11920,10 +11914,10 @@
       <c r="BH74" s="19"/>
     </row>
     <row r="75" spans="1:60" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A75" s="266"/>
-      <c r="B75" s="249"/>
-      <c r="C75" s="251"/>
-      <c r="D75" s="251"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="261"/>
+      <c r="C75" s="250"/>
+      <c r="D75" s="250"/>
       <c r="E75" s="35" t="s">
         <v>28</v>
       </c>
@@ -11950,10 +11944,10 @@
         <v>75</v>
       </c>
       <c r="T75" s="42"/>
-      <c r="U75" s="266"/>
-      <c r="V75" s="249"/>
-      <c r="W75" s="251"/>
-      <c r="X75" s="251"/>
+      <c r="U75" s="255"/>
+      <c r="V75" s="261"/>
+      <c r="W75" s="250"/>
+      <c r="X75" s="250"/>
       <c r="Y75" s="35" t="s">
         <v>28</v>
       </c>
@@ -11972,10 +11966,10 @@
       <c r="AL75" s="41"/>
       <c r="AM75" s="42"/>
       <c r="AN75" s="42"/>
-      <c r="AO75" s="266"/>
-      <c r="AP75" s="249"/>
-      <c r="AQ75" s="251"/>
-      <c r="AR75" s="251"/>
+      <c r="AO75" s="255"/>
+      <c r="AP75" s="261"/>
+      <c r="AQ75" s="250"/>
+      <c r="AR75" s="250"/>
       <c r="AS75" s="35" t="s">
         <v>28</v>
       </c>
@@ -12020,15 +12014,15 @@
       <c r="J76" s="68"/>
       <c r="K76" s="65"/>
       <c r="L76" s="69"/>
-      <c r="M76" s="256" t="s">
+      <c r="M76" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="257"/>
-      <c r="O76" s="257"/>
-      <c r="P76" s="258"/>
-      <c r="Q76" s="259"/>
-      <c r="R76" s="257"/>
-      <c r="S76" s="260"/>
+      <c r="N76" s="269"/>
+      <c r="O76" s="269"/>
+      <c r="P76" s="270"/>
+      <c r="Q76" s="288"/>
+      <c r="R76" s="269"/>
+      <c r="S76" s="289"/>
       <c r="T76" s="68"/>
       <c r="U76" s="65"/>
       <c r="V76" s="66"/>
@@ -12046,15 +12040,15 @@
       <c r="AD76" s="68"/>
       <c r="AE76" s="65"/>
       <c r="AF76" s="69"/>
-      <c r="AG76" s="256" t="s">
+      <c r="AG76" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="AH76" s="257"/>
-      <c r="AI76" s="257"/>
-      <c r="AJ76" s="258"/>
-      <c r="AK76" s="259"/>
-      <c r="AL76" s="257"/>
-      <c r="AM76" s="260"/>
+      <c r="AH76" s="269"/>
+      <c r="AI76" s="269"/>
+      <c r="AJ76" s="270"/>
+      <c r="AK76" s="288"/>
+      <c r="AL76" s="269"/>
+      <c r="AM76" s="289"/>
       <c r="AN76" s="68"/>
       <c r="AO76" s="65"/>
       <c r="AP76" s="66"/>
@@ -12072,15 +12066,15 @@
       <c r="AX76" s="163"/>
       <c r="AY76" s="164"/>
       <c r="AZ76" s="164"/>
-      <c r="BA76" s="270" t="s">
+      <c r="BA76" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="BB76" s="258"/>
-      <c r="BC76" s="257"/>
-      <c r="BD76" s="258"/>
-      <c r="BE76" s="259"/>
-      <c r="BF76" s="257"/>
-      <c r="BG76" s="260"/>
+      <c r="BB76" s="270"/>
+      <c r="BC76" s="269"/>
+      <c r="BD76" s="270"/>
+      <c r="BE76" s="288"/>
+      <c r="BF76" s="269"/>
+      <c r="BG76" s="289"/>
       <c r="BH76" s="68"/>
     </row>
     <row r="77" spans="1:60" ht="21" customHeight="1">
@@ -12148,17 +12142,17 @@
     <row r="78" spans="1:60" ht="21" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="76"/>
-      <c r="C78" s="261" t="s">
+      <c r="C78" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="254"/>
-      <c r="E78" s="254"/>
-      <c r="F78" s="254"/>
-      <c r="G78" s="254"/>
-      <c r="H78" s="254"/>
-      <c r="I78" s="254"/>
-      <c r="J78" s="254"/>
-      <c r="K78" s="255"/>
+      <c r="D78" s="281"/>
+      <c r="E78" s="281"/>
+      <c r="F78" s="281"/>
+      <c r="G78" s="281"/>
+      <c r="H78" s="281"/>
+      <c r="I78" s="281"/>
+      <c r="J78" s="281"/>
+      <c r="K78" s="282"/>
       <c r="L78" s="33"/>
       <c r="M78" s="59"/>
       <c r="N78" s="77"/>
@@ -12170,17 +12164,17 @@
       <c r="T78" s="78"/>
       <c r="U78" s="75"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="261" t="s">
+      <c r="W78" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="X78" s="254"/>
-      <c r="Y78" s="254"/>
-      <c r="Z78" s="254"/>
-      <c r="AA78" s="254"/>
-      <c r="AB78" s="254"/>
-      <c r="AC78" s="254"/>
-      <c r="AD78" s="254"/>
-      <c r="AE78" s="255"/>
+      <c r="X78" s="281"/>
+      <c r="Y78" s="281"/>
+      <c r="Z78" s="281"/>
+      <c r="AA78" s="281"/>
+      <c r="AB78" s="281"/>
+      <c r="AC78" s="281"/>
+      <c r="AD78" s="281"/>
+      <c r="AE78" s="282"/>
       <c r="AF78" s="33"/>
       <c r="AG78" s="59"/>
       <c r="AH78" s="77"/>
@@ -12192,17 +12186,17 @@
       <c r="AN78" s="78"/>
       <c r="AO78" s="75"/>
       <c r="AP78" s="76"/>
-      <c r="AQ78" s="261" t="s">
+      <c r="AQ78" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="AR78" s="254"/>
-      <c r="AS78" s="254"/>
-      <c r="AT78" s="254"/>
-      <c r="AU78" s="254"/>
-      <c r="AV78" s="254"/>
-      <c r="AW78" s="254"/>
-      <c r="AX78" s="254"/>
-      <c r="AY78" s="255"/>
+      <c r="AR78" s="281"/>
+      <c r="AS78" s="281"/>
+      <c r="AT78" s="281"/>
+      <c r="AU78" s="281"/>
+      <c r="AV78" s="281"/>
+      <c r="AW78" s="281"/>
+      <c r="AX78" s="281"/>
+      <c r="AY78" s="282"/>
       <c r="AZ78" s="33"/>
       <c r="BA78" s="59"/>
       <c r="BB78" s="77"/>
@@ -12216,17 +12210,17 @@
     <row r="79" spans="1:60" ht="21" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="76"/>
-      <c r="C79" s="262" t="s">
+      <c r="C79" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="254"/>
-      <c r="E79" s="254"/>
-      <c r="F79" s="254"/>
-      <c r="G79" s="254"/>
-      <c r="H79" s="254"/>
-      <c r="I79" s="254"/>
-      <c r="J79" s="254"/>
-      <c r="K79" s="255"/>
+      <c r="D79" s="281"/>
+      <c r="E79" s="281"/>
+      <c r="F79" s="281"/>
+      <c r="G79" s="281"/>
+      <c r="H79" s="281"/>
+      <c r="I79" s="281"/>
+      <c r="J79" s="281"/>
+      <c r="K79" s="282"/>
       <c r="L79" s="33"/>
       <c r="M79" s="59"/>
       <c r="N79" s="77"/>
@@ -12238,17 +12232,17 @@
       <c r="T79" s="78"/>
       <c r="U79" s="75"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="262" t="s">
+      <c r="W79" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="X79" s="254"/>
-      <c r="Y79" s="254"/>
-      <c r="Z79" s="254"/>
-      <c r="AA79" s="254"/>
-      <c r="AB79" s="254"/>
-      <c r="AC79" s="254"/>
-      <c r="AD79" s="254"/>
-      <c r="AE79" s="255"/>
+      <c r="X79" s="281"/>
+      <c r="Y79" s="281"/>
+      <c r="Z79" s="281"/>
+      <c r="AA79" s="281"/>
+      <c r="AB79" s="281"/>
+      <c r="AC79" s="281"/>
+      <c r="AD79" s="281"/>
+      <c r="AE79" s="282"/>
       <c r="AF79" s="33"/>
       <c r="AG79" s="59"/>
       <c r="AH79" s="77"/>
@@ -12260,17 +12254,17 @@
       <c r="AN79" s="78"/>
       <c r="AO79" s="75"/>
       <c r="AP79" s="76"/>
-      <c r="AQ79" s="262" t="s">
+      <c r="AQ79" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="AR79" s="254"/>
-      <c r="AS79" s="254"/>
-      <c r="AT79" s="254"/>
-      <c r="AU79" s="254"/>
-      <c r="AV79" s="254"/>
-      <c r="AW79" s="254"/>
-      <c r="AX79" s="254"/>
-      <c r="AY79" s="255"/>
+      <c r="AR79" s="281"/>
+      <c r="AS79" s="281"/>
+      <c r="AT79" s="281"/>
+      <c r="AU79" s="281"/>
+      <c r="AV79" s="281"/>
+      <c r="AW79" s="281"/>
+      <c r="AX79" s="281"/>
+      <c r="AY79" s="282"/>
       <c r="AZ79" s="33"/>
       <c r="BA79" s="59"/>
       <c r="BB79" s="77"/>
@@ -12284,17 +12278,17 @@
     <row r="80" spans="1:60" ht="21" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="76"/>
-      <c r="C80" s="263" t="s">
+      <c r="C80" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="254"/>
-      <c r="E80" s="254"/>
-      <c r="F80" s="254"/>
-      <c r="G80" s="254"/>
-      <c r="H80" s="254"/>
-      <c r="I80" s="254"/>
-      <c r="J80" s="254"/>
-      <c r="K80" s="255"/>
+      <c r="D80" s="281"/>
+      <c r="E80" s="281"/>
+      <c r="F80" s="281"/>
+      <c r="G80" s="281"/>
+      <c r="H80" s="281"/>
+      <c r="I80" s="281"/>
+      <c r="J80" s="281"/>
+      <c r="K80" s="282"/>
       <c r="L80" s="33"/>
       <c r="M80" s="59"/>
       <c r="N80" s="77"/>
@@ -12306,17 +12300,17 @@
       <c r="T80" s="78"/>
       <c r="U80" s="75"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="263" t="s">
+      <c r="W80" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="X80" s="254"/>
-      <c r="Y80" s="254"/>
-      <c r="Z80" s="254"/>
-      <c r="AA80" s="254"/>
-      <c r="AB80" s="254"/>
-      <c r="AC80" s="254"/>
-      <c r="AD80" s="254"/>
-      <c r="AE80" s="255"/>
+      <c r="X80" s="281"/>
+      <c r="Y80" s="281"/>
+      <c r="Z80" s="281"/>
+      <c r="AA80" s="281"/>
+      <c r="AB80" s="281"/>
+      <c r="AC80" s="281"/>
+      <c r="AD80" s="281"/>
+      <c r="AE80" s="282"/>
       <c r="AF80" s="33"/>
       <c r="AG80" s="59"/>
       <c r="AH80" s="77"/>
@@ -12328,17 +12322,17 @@
       <c r="AN80" s="78"/>
       <c r="AO80" s="75"/>
       <c r="AP80" s="76"/>
-      <c r="AQ80" s="263" t="s">
+      <c r="AQ80" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="AR80" s="254"/>
-      <c r="AS80" s="254"/>
-      <c r="AT80" s="254"/>
-      <c r="AU80" s="254"/>
-      <c r="AV80" s="254"/>
-      <c r="AW80" s="254"/>
-      <c r="AX80" s="254"/>
-      <c r="AY80" s="255"/>
+      <c r="AR80" s="281"/>
+      <c r="AS80" s="281"/>
+      <c r="AT80" s="281"/>
+      <c r="AU80" s="281"/>
+      <c r="AV80" s="281"/>
+      <c r="AW80" s="281"/>
+      <c r="AX80" s="281"/>
+      <c r="AY80" s="282"/>
       <c r="AZ80" s="33"/>
       <c r="BA80" s="59"/>
       <c r="BB80" s="77"/>
@@ -12488,17 +12482,17 @@
     <row r="83" spans="1:60" ht="21" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="76"/>
-      <c r="C83" s="267" t="s">
+      <c r="C83" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="254"/>
-      <c r="E83" s="254"/>
-      <c r="F83" s="254"/>
-      <c r="G83" s="254"/>
-      <c r="H83" s="254"/>
-      <c r="I83" s="254"/>
-      <c r="J83" s="254"/>
-      <c r="K83" s="255"/>
+      <c r="D83" s="281"/>
+      <c r="E83" s="281"/>
+      <c r="F83" s="281"/>
+      <c r="G83" s="281"/>
+      <c r="H83" s="281"/>
+      <c r="I83" s="281"/>
+      <c r="J83" s="281"/>
+      <c r="K83" s="282"/>
       <c r="L83" s="33"/>
       <c r="M83" s="59"/>
       <c r="N83" s="77"/>
@@ -12510,17 +12504,17 @@
       <c r="T83" s="78"/>
       <c r="U83" s="75"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="267" t="s">
+      <c r="W83" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="X83" s="254"/>
-      <c r="Y83" s="254"/>
-      <c r="Z83" s="254"/>
-      <c r="AA83" s="254"/>
-      <c r="AB83" s="254"/>
-      <c r="AC83" s="254"/>
-      <c r="AD83" s="254"/>
-      <c r="AE83" s="255"/>
+      <c r="X83" s="281"/>
+      <c r="Y83" s="281"/>
+      <c r="Z83" s="281"/>
+      <c r="AA83" s="281"/>
+      <c r="AB83" s="281"/>
+      <c r="AC83" s="281"/>
+      <c r="AD83" s="281"/>
+      <c r="AE83" s="282"/>
       <c r="AF83" s="82"/>
       <c r="AG83" s="83"/>
       <c r="AH83" s="85"/>
@@ -12532,17 +12526,17 @@
       <c r="AN83" s="78"/>
       <c r="AO83" s="75"/>
       <c r="AP83" s="76"/>
-      <c r="AQ83" s="267" t="s">
+      <c r="AQ83" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="AR83" s="254"/>
-      <c r="AS83" s="254"/>
-      <c r="AT83" s="254"/>
-      <c r="AU83" s="254"/>
-      <c r="AV83" s="254"/>
-      <c r="AW83" s="254"/>
-      <c r="AX83" s="254"/>
-      <c r="AY83" s="255"/>
+      <c r="AR83" s="281"/>
+      <c r="AS83" s="281"/>
+      <c r="AT83" s="281"/>
+      <c r="AU83" s="281"/>
+      <c r="AV83" s="281"/>
+      <c r="AW83" s="281"/>
+      <c r="AX83" s="281"/>
+      <c r="AY83" s="282"/>
       <c r="AZ83" s="82"/>
       <c r="BA83" s="83"/>
       <c r="BB83" s="85"/>
@@ -12556,17 +12550,17 @@
     <row r="84" spans="1:60" ht="21" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="76"/>
-      <c r="C84" s="253" t="s">
+      <c r="C84" s="286" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="254"/>
-      <c r="E84" s="254"/>
-      <c r="F84" s="254"/>
-      <c r="G84" s="254"/>
-      <c r="H84" s="254"/>
-      <c r="I84" s="254"/>
-      <c r="J84" s="254"/>
-      <c r="K84" s="255"/>
+      <c r="D84" s="281"/>
+      <c r="E84" s="281"/>
+      <c r="F84" s="281"/>
+      <c r="G84" s="281"/>
+      <c r="H84" s="281"/>
+      <c r="I84" s="281"/>
+      <c r="J84" s="281"/>
+      <c r="K84" s="282"/>
       <c r="L84" s="33"/>
       <c r="M84" s="59"/>
       <c r="N84" s="77"/>
@@ -12578,17 +12572,17 @@
       <c r="T84" s="78"/>
       <c r="U84" s="75"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="253" t="s">
+      <c r="W84" s="286" t="s">
         <v>53</v>
       </c>
-      <c r="X84" s="254"/>
-      <c r="Y84" s="254"/>
-      <c r="Z84" s="254"/>
-      <c r="AA84" s="254"/>
-      <c r="AB84" s="254"/>
-      <c r="AC84" s="254"/>
-      <c r="AD84" s="254"/>
-      <c r="AE84" s="255"/>
+      <c r="X84" s="281"/>
+      <c r="Y84" s="281"/>
+      <c r="Z84" s="281"/>
+      <c r="AA84" s="281"/>
+      <c r="AB84" s="281"/>
+      <c r="AC84" s="281"/>
+      <c r="AD84" s="281"/>
+      <c r="AE84" s="282"/>
       <c r="AF84" s="33"/>
       <c r="AG84" s="59"/>
       <c r="AH84" s="77"/>
@@ -12600,17 +12594,17 @@
       <c r="AN84" s="78"/>
       <c r="AO84" s="75"/>
       <c r="AP84" s="76"/>
-      <c r="AQ84" s="253" t="s">
+      <c r="AQ84" s="286" t="s">
         <v>53</v>
       </c>
-      <c r="AR84" s="254"/>
-      <c r="AS84" s="254"/>
-      <c r="AT84" s="254"/>
-      <c r="AU84" s="254"/>
-      <c r="AV84" s="254"/>
-      <c r="AW84" s="254"/>
-      <c r="AX84" s="254"/>
-      <c r="AY84" s="255"/>
+      <c r="AR84" s="281"/>
+      <c r="AS84" s="281"/>
+      <c r="AT84" s="281"/>
+      <c r="AU84" s="281"/>
+      <c r="AV84" s="281"/>
+      <c r="AW84" s="281"/>
+      <c r="AX84" s="281"/>
+      <c r="AY84" s="282"/>
       <c r="AZ84" s="33"/>
       <c r="BA84" s="59"/>
       <c r="BB84" s="77"/>
@@ -69457,29 +69451,334 @@
     </row>
   </sheetData>
   <mergeCells count="375">
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="U28:U39"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W84:AE84"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="W78:AE78"/>
+    <mergeCell ref="W79:AE79"/>
+    <mergeCell ref="W80:AE80"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="W68:W69"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="X70:X71"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="W72:W73"/>
+    <mergeCell ref="X72:X73"/>
+    <mergeCell ref="V74:V75"/>
+    <mergeCell ref="W74:W75"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="X64:X65"/>
+    <mergeCell ref="X66:X67"/>
+    <mergeCell ref="X68:X69"/>
+    <mergeCell ref="U64:U75"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="W62:W63"/>
+    <mergeCell ref="X62:X63"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="W83:AE83"/>
+    <mergeCell ref="V66:V67"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="W64:W65"/>
+    <mergeCell ref="W66:W67"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="C80:K80"/>
+    <mergeCell ref="C83:K83"/>
+    <mergeCell ref="C84:K84"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="U52:U63"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AR56:AR57"/>
+    <mergeCell ref="AR58:AR59"/>
+    <mergeCell ref="AR60:AR61"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="BA76:BD76"/>
+    <mergeCell ref="BE76:BG76"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AO4:AO15"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ78:AY78"/>
+    <mergeCell ref="AQ79:AY79"/>
+    <mergeCell ref="AQ80:AY80"/>
+    <mergeCell ref="AQ83:AY83"/>
+    <mergeCell ref="AQ84:AY84"/>
+    <mergeCell ref="AR70:AR71"/>
+    <mergeCell ref="AR72:AR73"/>
+    <mergeCell ref="AR74:AR75"/>
+    <mergeCell ref="AG76:AJ76"/>
+    <mergeCell ref="AK76:AM76"/>
+    <mergeCell ref="AP74:AP75"/>
+    <mergeCell ref="AQ70:AQ71"/>
+    <mergeCell ref="AQ72:AQ73"/>
+    <mergeCell ref="AQ74:AQ75"/>
+    <mergeCell ref="AR68:AR69"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="AQ44:AQ45"/>
+    <mergeCell ref="AR44:AR45"/>
+    <mergeCell ref="AQ46:AQ47"/>
+    <mergeCell ref="AR46:AR47"/>
+    <mergeCell ref="AQ48:AQ49"/>
+    <mergeCell ref="AR48:AR49"/>
+    <mergeCell ref="AQ50:AQ51"/>
+    <mergeCell ref="AR50:AR51"/>
+    <mergeCell ref="AQ68:AQ69"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AQ56:AQ57"/>
+    <mergeCell ref="AQ58:AQ59"/>
+    <mergeCell ref="AQ60:AQ61"/>
+    <mergeCell ref="AQ62:AQ63"/>
+    <mergeCell ref="AQ64:AQ65"/>
+    <mergeCell ref="AQ66:AQ67"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AR64:AR65"/>
+    <mergeCell ref="AR66:AR67"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AP56:AP57"/>
+    <mergeCell ref="AP58:AP59"/>
+    <mergeCell ref="AP60:AP61"/>
+    <mergeCell ref="AP62:AP63"/>
+    <mergeCell ref="AP64:AP65"/>
+    <mergeCell ref="AP66:AP67"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AQ42:AQ43"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AO28:AO39"/>
+    <mergeCell ref="AO40:AO51"/>
+    <mergeCell ref="AO52:AO63"/>
+    <mergeCell ref="AO64:AO75"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AO16:AO27"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AP42:AP43"/>
+    <mergeCell ref="AP44:AP45"/>
+    <mergeCell ref="AP46:AP47"/>
+    <mergeCell ref="AP48:AP49"/>
+    <mergeCell ref="AP50:AP51"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AP68:AP69"/>
+    <mergeCell ref="AP70:AP71"/>
+    <mergeCell ref="AP72:AP73"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="U4:U15"/>
+    <mergeCell ref="U16:U27"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="V1:AH1"/>
+    <mergeCell ref="AP1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A40:A51"/>
     <mergeCell ref="X50:X51"/>
     <mergeCell ref="U40:U51"/>
     <mergeCell ref="V40:V41"/>
@@ -69504,334 +69803,29 @@
     <mergeCell ref="V48:V49"/>
     <mergeCell ref="W48:W49"/>
     <mergeCell ref="X48:X49"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="V1:AH1"/>
-    <mergeCell ref="AP1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="U4:U15"/>
-    <mergeCell ref="U16:U27"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AO28:AO39"/>
-    <mergeCell ref="AO40:AO51"/>
-    <mergeCell ref="AO52:AO63"/>
-    <mergeCell ref="AO64:AO75"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AO16:AO27"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AP42:AP43"/>
-    <mergeCell ref="AP44:AP45"/>
-    <mergeCell ref="AP46:AP47"/>
-    <mergeCell ref="AP48:AP49"/>
-    <mergeCell ref="AP50:AP51"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AP68:AP69"/>
-    <mergeCell ref="AP70:AP71"/>
-    <mergeCell ref="AP72:AP73"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AP56:AP57"/>
-    <mergeCell ref="AP58:AP59"/>
-    <mergeCell ref="AP60:AP61"/>
-    <mergeCell ref="AP62:AP63"/>
-    <mergeCell ref="AP64:AP65"/>
-    <mergeCell ref="AP66:AP67"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AQ42:AQ43"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AR68:AR69"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="AQ44:AQ45"/>
-    <mergeCell ref="AR44:AR45"/>
-    <mergeCell ref="AQ46:AQ47"/>
-    <mergeCell ref="AR46:AR47"/>
-    <mergeCell ref="AQ48:AQ49"/>
-    <mergeCell ref="AR48:AR49"/>
-    <mergeCell ref="AQ50:AQ51"/>
-    <mergeCell ref="AR50:AR51"/>
-    <mergeCell ref="AQ68:AQ69"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AQ56:AQ57"/>
-    <mergeCell ref="AQ58:AQ59"/>
-    <mergeCell ref="AQ60:AQ61"/>
-    <mergeCell ref="AQ62:AQ63"/>
-    <mergeCell ref="AQ64:AQ65"/>
-    <mergeCell ref="AQ66:AQ67"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AR64:AR65"/>
-    <mergeCell ref="AR66:AR67"/>
-    <mergeCell ref="AQ78:AY78"/>
-    <mergeCell ref="AQ79:AY79"/>
-    <mergeCell ref="AQ80:AY80"/>
-    <mergeCell ref="AQ83:AY83"/>
-    <mergeCell ref="AQ84:AY84"/>
-    <mergeCell ref="AR70:AR71"/>
-    <mergeCell ref="AR72:AR73"/>
-    <mergeCell ref="AR74:AR75"/>
-    <mergeCell ref="AG76:AJ76"/>
-    <mergeCell ref="AK76:AM76"/>
-    <mergeCell ref="AP74:AP75"/>
-    <mergeCell ref="AQ70:AQ71"/>
-    <mergeCell ref="AQ72:AQ73"/>
-    <mergeCell ref="AQ74:AQ75"/>
-    <mergeCell ref="BA76:BD76"/>
-    <mergeCell ref="BE76:BG76"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AO4:AO15"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="U52:U63"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AR56:AR57"/>
-    <mergeCell ref="AR58:AR59"/>
-    <mergeCell ref="AR60:AR61"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C80:K80"/>
-    <mergeCell ref="C83:K83"/>
-    <mergeCell ref="C84:K84"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="X58:X59"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="X62:X63"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="W83:AE83"/>
-    <mergeCell ref="V66:V67"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="V64:V65"/>
-    <mergeCell ref="W64:W65"/>
-    <mergeCell ref="W66:W67"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="W84:AE84"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="W78:AE78"/>
-    <mergeCell ref="W79:AE79"/>
-    <mergeCell ref="W80:AE80"/>
-    <mergeCell ref="V68:V69"/>
-    <mergeCell ref="W68:W69"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="X70:X71"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="W72:W73"/>
-    <mergeCell ref="X72:X73"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="W74:W75"/>
-    <mergeCell ref="X74:X75"/>
-    <mergeCell ref="X64:X65"/>
-    <mergeCell ref="X66:X67"/>
-    <mergeCell ref="X68:X69"/>
-    <mergeCell ref="U64:U75"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="U28:U39"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
   </mergeCells>
   <conditionalFormatting sqref="AJ66:AK69">
     <cfRule type="uniqueValues" dxfId="3" priority="5"/>
